--- a/dataset/old_dataset_program.xlsx
+++ b/dataset/old_dataset_program.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\TA\Program\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06AC07B-C7E4-4B38-BFAC-7572EB8386B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD462C8-0778-4AA7-895B-6B81794A6887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AE1293E2-0B4F-427F-B4CE-918E7065FE59}"/>
   </bookViews>
@@ -3076,7 +3076,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3084,10 +3084,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3405,12 +3401,12 @@
   <dimension ref="A1:C616"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="50.21875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="93.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -3428,7 +3424,7 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2">
@@ -3439,7 +3435,7 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3">
@@ -3450,7 +3446,7 @@
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4">
@@ -3461,7 +3457,7 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5">
@@ -3472,7 +3468,7 @@
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6">
@@ -3483,7 +3479,7 @@
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" t="s">
         <v>12</v>
       </c>
       <c r="C7">
@@ -3494,7 +3490,7 @@
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" t="s">
         <v>14</v>
       </c>
       <c r="C8">
@@ -3505,7 +3501,7 @@
       <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" t="s">
         <v>15</v>
       </c>
       <c r="C9">
@@ -3516,7 +3512,7 @@
       <c r="A10" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" t="s">
         <v>17</v>
       </c>
       <c r="C10">
@@ -3527,7 +3523,7 @@
       <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" t="s">
         <v>19</v>
       </c>
       <c r="C11">
@@ -3538,7 +3534,7 @@
       <c r="A12" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" t="s">
         <v>21</v>
       </c>
       <c r="C12">
@@ -3549,7 +3545,7 @@
       <c r="A13" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" t="s">
         <v>23</v>
       </c>
       <c r="C13">
@@ -3560,7 +3556,7 @@
       <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" t="s">
         <v>25</v>
       </c>
       <c r="C14">
@@ -3571,7 +3567,7 @@
       <c r="A15" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" t="s">
         <v>27</v>
       </c>
       <c r="C15">
@@ -3582,7 +3578,7 @@
       <c r="A16" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" t="s">
         <v>29</v>
       </c>
       <c r="C16">
@@ -3593,7 +3589,7 @@
       <c r="A17" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" t="s">
         <v>31</v>
       </c>
       <c r="C17">
@@ -3604,7 +3600,7 @@
       <c r="A18" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" t="s">
         <v>33</v>
       </c>
       <c r="C18">
@@ -3615,7 +3611,7 @@
       <c r="A19" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" t="s">
         <v>35</v>
       </c>
       <c r="C19">
@@ -3626,7 +3622,7 @@
       <c r="A20" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" t="s">
         <v>25</v>
       </c>
       <c r="C20">
@@ -3637,7 +3633,7 @@
       <c r="A21" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" t="s">
         <v>37</v>
       </c>
       <c r="C21">
@@ -3648,7 +3644,7 @@
       <c r="A22" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" t="s">
         <v>39</v>
       </c>
       <c r="C22">
@@ -3659,7 +3655,7 @@
       <c r="A23" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" t="s">
         <v>41</v>
       </c>
       <c r="C23">
@@ -3670,7 +3666,7 @@
       <c r="A24" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" t="s">
         <v>43</v>
       </c>
       <c r="C24">
@@ -3681,7 +3677,7 @@
       <c r="A25" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" t="s">
         <v>45</v>
       </c>
       <c r="C25">
@@ -3692,7 +3688,7 @@
       <c r="A26" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" t="s">
         <v>46</v>
       </c>
       <c r="C26">
@@ -3703,7 +3699,7 @@
       <c r="A27" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" t="s">
         <v>48</v>
       </c>
       <c r="C27">
@@ -3714,7 +3710,7 @@
       <c r="A28" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" t="s">
         <v>50</v>
       </c>
       <c r="C28">
@@ -3725,7 +3721,7 @@
       <c r="A29" t="s">
         <v>51</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" t="s">
         <v>52</v>
       </c>
       <c r="C29">
@@ -3736,7 +3732,7 @@
       <c r="A30" t="s">
         <v>53</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" t="s">
         <v>6</v>
       </c>
       <c r="C30">
@@ -3747,7 +3743,7 @@
       <c r="A31" t="s">
         <v>54</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" t="s">
         <v>55</v>
       </c>
       <c r="C31">
@@ -3758,7 +3754,7 @@
       <c r="A32" t="s">
         <v>56</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
@@ -3769,7 +3765,7 @@
       <c r="A33" t="s">
         <v>58</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" t="s">
         <v>59</v>
       </c>
       <c r="C33">
@@ -3780,7 +3776,7 @@
       <c r="A34" t="s">
         <v>60</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" t="s">
         <v>61</v>
       </c>
       <c r="C34">
@@ -3791,7 +3787,7 @@
       <c r="A35" t="s">
         <v>62</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" t="s">
         <v>63</v>
       </c>
       <c r="C35">
@@ -3802,7 +3798,7 @@
       <c r="A36" t="s">
         <v>64</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" t="s">
         <v>65</v>
       </c>
       <c r="C36">
@@ -3813,7 +3809,7 @@
       <c r="A37" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" t="s">
         <v>67</v>
       </c>
       <c r="C37">
@@ -3824,7 +3820,7 @@
       <c r="A38" t="s">
         <v>68</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" t="s">
         <v>69</v>
       </c>
       <c r="C38">
@@ -3835,7 +3831,7 @@
       <c r="A39" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" t="s">
         <v>70</v>
       </c>
       <c r="C39">
@@ -3846,7 +3842,7 @@
       <c r="A40" t="s">
         <v>71</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" t="s">
         <v>72</v>
       </c>
       <c r="C40">
@@ -3857,7 +3853,7 @@
       <c r="A41" t="s">
         <v>73</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" t="s">
         <v>74</v>
       </c>
       <c r="C41">
@@ -3868,7 +3864,7 @@
       <c r="A42" t="s">
         <v>66</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" t="s">
         <v>75</v>
       </c>
       <c r="C42">
@@ -3879,7 +3875,7 @@
       <c r="A43" t="s">
         <v>76</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" t="s">
         <v>77</v>
       </c>
       <c r="C43">
@@ -3890,7 +3886,7 @@
       <c r="A44" t="s">
         <v>78</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" t="s">
         <v>79</v>
       </c>
       <c r="C44">
@@ -3901,7 +3897,7 @@
       <c r="A45" t="s">
         <v>80</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" t="s">
         <v>81</v>
       </c>
       <c r="C45">
@@ -3912,7 +3908,7 @@
       <c r="A46" t="s">
         <v>82</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" t="s">
         <v>83</v>
       </c>
       <c r="C46">
@@ -3923,7 +3919,7 @@
       <c r="A47" t="s">
         <v>84</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" t="s">
         <v>85</v>
       </c>
       <c r="C47">
@@ -3934,7 +3930,7 @@
       <c r="A48" t="s">
         <v>86</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" t="s">
         <v>87</v>
       </c>
       <c r="C48">
@@ -3945,7 +3941,7 @@
       <c r="A49" t="s">
         <v>88</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" t="s">
         <v>74</v>
       </c>
       <c r="C49">
@@ -3956,7 +3952,7 @@
       <c r="A50" t="s">
         <v>89</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" t="s">
         <v>90</v>
       </c>
       <c r="C50">
@@ -3967,7 +3963,7 @@
       <c r="A51" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" t="s">
         <v>91</v>
       </c>
       <c r="C51">
@@ -3978,7 +3974,7 @@
       <c r="A52" t="s">
         <v>92</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" t="s">
         <v>93</v>
       </c>
       <c r="C52">
@@ -3989,7 +3985,7 @@
       <c r="A53" t="s">
         <v>94</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" t="s">
         <v>95</v>
       </c>
       <c r="C53">
@@ -4000,7 +3996,7 @@
       <c r="A54" t="s">
         <v>96</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" t="s">
         <v>97</v>
       </c>
       <c r="C54">
@@ -4011,7 +4007,7 @@
       <c r="A55" t="s">
         <v>98</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" t="s">
         <v>99</v>
       </c>
       <c r="C55">
@@ -4022,7 +4018,7 @@
       <c r="A56" t="s">
         <v>36</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" t="s">
         <v>25</v>
       </c>
       <c r="C56">
@@ -4033,7 +4029,7 @@
       <c r="A57" t="s">
         <v>100</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" t="s">
         <v>101</v>
       </c>
       <c r="C57">
@@ -4044,7 +4040,7 @@
       <c r="A58" t="s">
         <v>102</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" t="s">
         <v>103</v>
       </c>
       <c r="C58">
@@ -4055,7 +4051,7 @@
       <c r="A59" t="s">
         <v>104</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" t="s">
         <v>105</v>
       </c>
       <c r="C59">
@@ -4066,7 +4062,7 @@
       <c r="A60" t="s">
         <v>106</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" t="s">
         <v>107</v>
       </c>
       <c r="C60">
@@ -4077,7 +4073,7 @@
       <c r="A61" t="s">
         <v>108</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" t="s">
         <v>109</v>
       </c>
       <c r="C61">
@@ -4088,7 +4084,7 @@
       <c r="A62" t="s">
         <v>110</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" t="s">
         <v>111</v>
       </c>
       <c r="C62">
@@ -4099,7 +4095,7 @@
       <c r="A63" t="s">
         <v>112</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" t="s">
         <v>25</v>
       </c>
       <c r="C63">
@@ -4110,7 +4106,7 @@
       <c r="A64" t="s">
         <v>113</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" t="s">
         <v>114</v>
       </c>
       <c r="C64">
@@ -4121,7 +4117,7 @@
       <c r="A65" t="s">
         <v>115</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" t="s">
         <v>116</v>
       </c>
       <c r="C65">
@@ -4132,7 +4128,7 @@
       <c r="A66" t="s">
         <v>117</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" t="s">
         <v>118</v>
       </c>
       <c r="C66">
@@ -4143,7 +4139,7 @@
       <c r="A67" t="s">
         <v>119</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" t="s">
         <v>120</v>
       </c>
       <c r="C67">
@@ -4154,7 +4150,7 @@
       <c r="A68" t="s">
         <v>121</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" t="s">
         <v>122</v>
       </c>
       <c r="C68">
@@ -4165,7 +4161,7 @@
       <c r="A69" t="s">
         <v>123</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" t="s">
         <v>124</v>
       </c>
       <c r="C69">
@@ -4176,7 +4172,7 @@
       <c r="A70" t="s">
         <v>125</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" t="s">
         <v>126</v>
       </c>
       <c r="C70">
@@ -4187,7 +4183,7 @@
       <c r="A71" t="s">
         <v>125</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" t="s">
         <v>127</v>
       </c>
       <c r="C71">
@@ -4198,7 +4194,7 @@
       <c r="A72" t="s">
         <v>128</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" t="s">
         <v>129</v>
       </c>
       <c r="C72">
@@ -4209,7 +4205,7 @@
       <c r="A73" t="s">
         <v>130</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" t="s">
         <v>131</v>
       </c>
       <c r="C73">
@@ -4220,7 +4216,7 @@
       <c r="A74" t="s">
         <v>132</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" t="s">
         <v>133</v>
       </c>
       <c r="C74">
@@ -4231,7 +4227,7 @@
       <c r="A75" t="s">
         <v>134</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" t="s">
         <v>135</v>
       </c>
       <c r="C75">
@@ -4242,7 +4238,7 @@
       <c r="A76" t="s">
         <v>136</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" t="s">
         <v>137</v>
       </c>
       <c r="C76">
@@ -4253,7 +4249,7 @@
       <c r="A77" t="s">
         <v>138</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B77" t="s">
         <v>139</v>
       </c>
       <c r="C77">
@@ -4264,7 +4260,7 @@
       <c r="A78" t="s">
         <v>140</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B78" t="s">
         <v>141</v>
       </c>
       <c r="C78">
@@ -4275,7 +4271,7 @@
       <c r="A79" t="s">
         <v>142</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="B79" t="s">
         <v>143</v>
       </c>
       <c r="C79">
@@ -4286,7 +4282,7 @@
       <c r="A80" t="s">
         <v>128</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B80" t="s">
         <v>144</v>
       </c>
       <c r="C80">
@@ -4297,7 +4293,7 @@
       <c r="A81" t="s">
         <v>145</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="B81" t="s">
         <v>25</v>
       </c>
       <c r="C81">
@@ -4308,7 +4304,7 @@
       <c r="A82" t="s">
         <v>146</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B82" t="s">
         <v>147</v>
       </c>
       <c r="C82">
@@ -4319,7 +4315,7 @@
       <c r="A83" t="s">
         <v>148</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B83" t="s">
         <v>149</v>
       </c>
       <c r="C83">
@@ -4330,7 +4326,7 @@
       <c r="A84" t="s">
         <v>150</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B84" t="s">
         <v>151</v>
       </c>
       <c r="C84">
@@ -4341,7 +4337,7 @@
       <c r="A85" t="s">
         <v>152</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="B85" t="s">
         <v>153</v>
       </c>
       <c r="C85">
@@ -4352,7 +4348,7 @@
       <c r="A86" t="s">
         <v>154</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="B86" t="s">
         <v>155</v>
       </c>
       <c r="C86">
@@ -4363,7 +4359,7 @@
       <c r="A87" t="s">
         <v>156</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="B87" t="s">
         <v>157</v>
       </c>
       <c r="C87">
@@ -4374,7 +4370,7 @@
       <c r="A88" t="s">
         <v>158</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="B88" t="s">
         <v>159</v>
       </c>
       <c r="C88">
@@ -4385,7 +4381,7 @@
       <c r="A89" t="s">
         <v>160</v>
       </c>
-      <c r="B89" s="5" t="s">
+      <c r="B89" t="s">
         <v>161</v>
       </c>
       <c r="C89">
@@ -4396,7 +4392,7 @@
       <c r="A90" t="s">
         <v>36</v>
       </c>
-      <c r="B90" s="5" t="s">
+      <c r="B90" t="s">
         <v>162</v>
       </c>
       <c r="C90">
@@ -4407,7 +4403,7 @@
       <c r="A91" t="s">
         <v>163</v>
       </c>
-      <c r="B91" s="5" t="s">
+      <c r="B91" t="s">
         <v>164</v>
       </c>
       <c r="C91">
@@ -4418,7 +4414,7 @@
       <c r="A92" t="s">
         <v>165</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="B92" t="s">
         <v>166</v>
       </c>
       <c r="C92">
@@ -4429,7 +4425,7 @@
       <c r="A93" t="s">
         <v>167</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="B93" t="s">
         <v>168</v>
       </c>
       <c r="C93">
@@ -4440,7 +4436,7 @@
       <c r="A94" t="s">
         <v>169</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="B94" t="s">
         <v>170</v>
       </c>
       <c r="C94">
@@ -4451,7 +4447,7 @@
       <c r="A95" t="s">
         <v>171</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="B95" t="s">
         <v>172</v>
       </c>
       <c r="C95">
@@ -4462,7 +4458,7 @@
       <c r="A96" t="s">
         <v>106</v>
       </c>
-      <c r="B96" s="5" t="s">
+      <c r="B96" t="s">
         <v>173</v>
       </c>
       <c r="C96">
@@ -4473,7 +4469,7 @@
       <c r="A97" t="s">
         <v>174</v>
       </c>
-      <c r="B97" s="5" t="s">
+      <c r="B97" t="s">
         <v>175</v>
       </c>
       <c r="C97">
@@ -4484,7 +4480,7 @@
       <c r="A98" t="s">
         <v>176</v>
       </c>
-      <c r="B98" s="5" t="s">
+      <c r="B98" t="s">
         <v>177</v>
       </c>
       <c r="C98">
@@ -4495,7 +4491,7 @@
       <c r="A99" t="s">
         <v>178</v>
       </c>
-      <c r="B99" s="5" t="s">
+      <c r="B99" t="s">
         <v>43</v>
       </c>
       <c r="C99">
@@ -4506,7 +4502,7 @@
       <c r="A100" t="s">
         <v>179</v>
       </c>
-      <c r="B100" s="5" t="s">
+      <c r="B100" t="s">
         <v>25</v>
       </c>
       <c r="C100">
@@ -4517,7 +4513,7 @@
       <c r="A101" t="s">
         <v>180</v>
       </c>
-      <c r="B101" s="5" t="s">
+      <c r="B101" t="s">
         <v>181</v>
       </c>
       <c r="C101">
@@ -4528,7 +4524,7 @@
       <c r="A102" t="s">
         <v>182</v>
       </c>
-      <c r="B102" s="5" t="s">
+      <c r="B102" t="s">
         <v>183</v>
       </c>
       <c r="C102">
@@ -4539,7 +4535,7 @@
       <c r="A103" t="s">
         <v>184</v>
       </c>
-      <c r="B103" s="5" t="s">
+      <c r="B103" t="s">
         <v>74</v>
       </c>
       <c r="C103">
@@ -4550,7 +4546,7 @@
       <c r="A104" t="s">
         <v>185</v>
       </c>
-      <c r="B104" s="5" t="s">
+      <c r="B104" t="s">
         <v>186</v>
       </c>
       <c r="C104">
@@ -4561,7 +4557,7 @@
       <c r="A105" t="s">
         <v>187</v>
       </c>
-      <c r="B105" s="5" t="s">
+      <c r="B105" t="s">
         <v>188</v>
       </c>
       <c r="C105">
@@ -4572,7 +4568,7 @@
       <c r="A106" t="s">
         <v>189</v>
       </c>
-      <c r="B106" s="5" t="s">
+      <c r="B106" t="s">
         <v>190</v>
       </c>
       <c r="C106">
@@ -4583,7 +4579,7 @@
       <c r="A107" t="s">
         <v>191</v>
       </c>
-      <c r="B107" s="5" t="s">
+      <c r="B107" t="s">
         <v>192</v>
       </c>
       <c r="C107">
@@ -4594,7 +4590,7 @@
       <c r="A108" t="s">
         <v>193</v>
       </c>
-      <c r="B108" s="5" t="s">
+      <c r="B108" t="s">
         <v>25</v>
       </c>
       <c r="C108">
@@ -4605,7 +4601,7 @@
       <c r="A109" t="s">
         <v>194</v>
       </c>
-      <c r="B109" s="5" t="s">
+      <c r="B109" t="s">
         <v>195</v>
       </c>
       <c r="C109">
@@ -4616,7 +4612,7 @@
       <c r="A110" t="s">
         <v>196</v>
       </c>
-      <c r="B110" s="5" t="s">
+      <c r="B110" t="s">
         <v>25</v>
       </c>
       <c r="C110">
@@ -4627,7 +4623,7 @@
       <c r="A111" t="s">
         <v>197</v>
       </c>
-      <c r="B111" s="5" t="s">
+      <c r="B111" t="s">
         <v>198</v>
       </c>
       <c r="C111">
@@ -4638,7 +4634,7 @@
       <c r="A112" t="s">
         <v>199</v>
       </c>
-      <c r="B112" s="5" t="s">
+      <c r="B112" t="s">
         <v>200</v>
       </c>
       <c r="C112">
@@ -4649,7 +4645,7 @@
       <c r="A113" t="s">
         <v>58</v>
       </c>
-      <c r="B113" s="5" t="s">
+      <c r="B113" t="s">
         <v>201</v>
       </c>
       <c r="C113">
@@ -4660,7 +4656,7 @@
       <c r="A114" t="s">
         <v>202</v>
       </c>
-      <c r="B114" s="5" t="s">
+      <c r="B114" t="s">
         <v>203</v>
       </c>
       <c r="C114">
@@ -4671,7 +4667,7 @@
       <c r="A115" t="s">
         <v>204</v>
       </c>
-      <c r="B115" s="5" t="s">
+      <c r="B115" t="s">
         <v>205</v>
       </c>
       <c r="C115">
@@ -4682,7 +4678,7 @@
       <c r="A116" t="s">
         <v>30</v>
       </c>
-      <c r="B116" s="5" t="s">
+      <c r="B116" t="s">
         <v>206</v>
       </c>
       <c r="C116">
@@ -4693,7 +4689,7 @@
       <c r="A117" t="s">
         <v>207</v>
       </c>
-      <c r="B117" s="5" t="s">
+      <c r="B117" t="s">
         <v>208</v>
       </c>
       <c r="C117">
@@ -4704,7 +4700,7 @@
       <c r="A118" t="s">
         <v>209</v>
       </c>
-      <c r="B118" s="5" t="s">
+      <c r="B118" t="s">
         <v>210</v>
       </c>
       <c r="C118">
@@ -4715,7 +4711,7 @@
       <c r="A119" t="s">
         <v>211</v>
       </c>
-      <c r="B119" s="5" t="s">
+      <c r="B119" t="s">
         <v>212</v>
       </c>
       <c r="C119">
@@ -4726,7 +4722,7 @@
       <c r="A120" t="s">
         <v>213</v>
       </c>
-      <c r="B120" s="5" t="s">
+      <c r="B120" t="s">
         <v>214</v>
       </c>
       <c r="C120">
@@ -4737,7 +4733,7 @@
       <c r="A121" t="s">
         <v>215</v>
       </c>
-      <c r="B121" s="5" t="s">
+      <c r="B121" t="s">
         <v>216</v>
       </c>
       <c r="C121">
@@ -4748,7 +4744,7 @@
       <c r="A122" t="s">
         <v>217</v>
       </c>
-      <c r="B122" s="5" t="s">
+      <c r="B122" t="s">
         <v>173</v>
       </c>
       <c r="C122">
@@ -4759,7 +4755,7 @@
       <c r="A123" t="s">
         <v>218</v>
       </c>
-      <c r="B123" s="5" t="s">
+      <c r="B123" t="s">
         <v>219</v>
       </c>
       <c r="C123">
@@ -4770,7 +4766,7 @@
       <c r="A124" t="s">
         <v>220</v>
       </c>
-      <c r="B124" s="5" t="s">
+      <c r="B124" t="s">
         <v>221</v>
       </c>
       <c r="C124">
@@ -4781,7 +4777,7 @@
       <c r="A125" t="s">
         <v>222</v>
       </c>
-      <c r="B125" s="5" t="s">
+      <c r="B125" t="s">
         <v>223</v>
       </c>
       <c r="C125">
@@ -4792,7 +4788,7 @@
       <c r="A126" t="s">
         <v>224</v>
       </c>
-      <c r="B126" s="5" t="s">
+      <c r="B126" t="s">
         <v>225</v>
       </c>
       <c r="C126">
@@ -4803,7 +4799,7 @@
       <c r="A127" t="s">
         <v>224</v>
       </c>
-      <c r="B127" s="5" t="s">
+      <c r="B127" t="s">
         <v>226</v>
       </c>
       <c r="C127">
@@ -4814,7 +4810,7 @@
       <c r="A128" t="s">
         <v>227</v>
       </c>
-      <c r="B128" s="5" t="s">
+      <c r="B128" t="s">
         <v>228</v>
       </c>
       <c r="C128">
@@ -4825,7 +4821,7 @@
       <c r="A129" t="s">
         <v>229</v>
       </c>
-      <c r="B129" s="5" t="s">
+      <c r="B129" t="s">
         <v>230</v>
       </c>
       <c r="C129">
@@ -4836,7 +4832,7 @@
       <c r="A130" t="s">
         <v>56</v>
       </c>
-      <c r="B130" s="5" t="s">
+      <c r="B130" t="s">
         <v>231</v>
       </c>
       <c r="C130">
@@ -4847,7 +4843,7 @@
       <c r="A131" t="s">
         <v>232</v>
       </c>
-      <c r="B131" s="5" t="s">
+      <c r="B131" t="s">
         <v>233</v>
       </c>
       <c r="C131">
@@ -4858,7 +4854,7 @@
       <c r="A132" t="s">
         <v>234</v>
       </c>
-      <c r="B132" s="5" t="s">
+      <c r="B132" t="s">
         <v>235</v>
       </c>
       <c r="C132">
@@ -4869,7 +4865,7 @@
       <c r="A133" t="s">
         <v>202</v>
       </c>
-      <c r="B133" s="5" t="s">
+      <c r="B133" t="s">
         <v>236</v>
       </c>
       <c r="C133">
@@ -4880,7 +4876,7 @@
       <c r="A134" t="s">
         <v>237</v>
       </c>
-      <c r="B134" s="5" t="s">
+      <c r="B134" t="s">
         <v>238</v>
       </c>
       <c r="C134">
@@ -4891,7 +4887,7 @@
       <c r="A135" t="s">
         <v>239</v>
       </c>
-      <c r="B135" s="5" t="s">
+      <c r="B135" t="s">
         <v>240</v>
       </c>
       <c r="C135">
@@ -4902,7 +4898,7 @@
       <c r="A136" t="s">
         <v>241</v>
       </c>
-      <c r="B136" s="5" t="s">
+      <c r="B136" t="s">
         <v>242</v>
       </c>
       <c r="C136">
@@ -4913,7 +4909,7 @@
       <c r="A137" t="s">
         <v>243</v>
       </c>
-      <c r="B137" s="5" t="s">
+      <c r="B137" t="s">
         <v>244</v>
       </c>
       <c r="C137">
@@ -4924,7 +4920,7 @@
       <c r="A138" t="s">
         <v>245</v>
       </c>
-      <c r="B138" s="5" t="s">
+      <c r="B138" t="s">
         <v>246</v>
       </c>
       <c r="C138">
@@ -4935,7 +4931,7 @@
       <c r="A139" t="s">
         <v>247</v>
       </c>
-      <c r="B139" s="5" t="s">
+      <c r="B139" t="s">
         <v>248</v>
       </c>
       <c r="C139">
@@ -4946,7 +4942,7 @@
       <c r="A140" t="s">
         <v>249</v>
       </c>
-      <c r="B140" s="5" t="s">
+      <c r="B140" t="s">
         <v>250</v>
       </c>
       <c r="C140">
@@ -4957,7 +4953,7 @@
       <c r="A141" t="s">
         <v>251</v>
       </c>
-      <c r="B141" s="5" t="s">
+      <c r="B141" t="s">
         <v>252</v>
       </c>
       <c r="C141">
@@ -4968,7 +4964,7 @@
       <c r="A142" t="s">
         <v>253</v>
       </c>
-      <c r="B142" s="5" t="s">
+      <c r="B142" t="s">
         <v>254</v>
       </c>
       <c r="C142">
@@ -4979,7 +4975,7 @@
       <c r="A143" t="s">
         <v>255</v>
       </c>
-      <c r="B143" s="5" t="s">
+      <c r="B143" t="s">
         <v>256</v>
       </c>
       <c r="C143">
@@ -4990,7 +4986,7 @@
       <c r="A144" t="s">
         <v>257</v>
       </c>
-      <c r="B144" s="5" t="s">
+      <c r="B144" t="s">
         <v>258</v>
       </c>
       <c r="C144">
@@ -5001,7 +4997,7 @@
       <c r="A145" t="s">
         <v>259</v>
       </c>
-      <c r="B145" s="5" t="s">
+      <c r="B145" t="s">
         <v>260</v>
       </c>
       <c r="C145">
@@ -5012,7 +5008,7 @@
       <c r="A146" t="s">
         <v>53</v>
       </c>
-      <c r="B146" s="5" t="s">
+      <c r="B146" t="s">
         <v>261</v>
       </c>
       <c r="C146">
@@ -5023,7 +5019,7 @@
       <c r="A147" t="s">
         <v>262</v>
       </c>
-      <c r="B147" s="5" t="s">
+      <c r="B147" t="s">
         <v>263</v>
       </c>
       <c r="C147">
@@ -5034,7 +5030,7 @@
       <c r="A148" t="s">
         <v>264</v>
       </c>
-      <c r="B148" s="5" t="s">
+      <c r="B148" t="s">
         <v>265</v>
       </c>
       <c r="C148">
@@ -5045,7 +5041,7 @@
       <c r="A149" t="s">
         <v>266</v>
       </c>
-      <c r="B149" s="5" t="s">
+      <c r="B149" t="s">
         <v>267</v>
       </c>
       <c r="C149">
@@ -5056,7 +5052,7 @@
       <c r="A150" t="s">
         <v>268</v>
       </c>
-      <c r="B150" s="5" t="s">
+      <c r="B150" t="s">
         <v>269</v>
       </c>
       <c r="C150">
@@ -5067,7 +5063,7 @@
       <c r="A151" t="s">
         <v>270</v>
       </c>
-      <c r="B151" s="5" t="s">
+      <c r="B151" t="s">
         <v>271</v>
       </c>
       <c r="C151">
@@ -5078,7 +5074,7 @@
       <c r="A152" t="s">
         <v>272</v>
       </c>
-      <c r="B152" s="5" t="s">
+      <c r="B152" t="s">
         <v>273</v>
       </c>
       <c r="C152">
@@ -5089,7 +5085,7 @@
       <c r="A153" t="s">
         <v>274</v>
       </c>
-      <c r="B153" s="5" t="s">
+      <c r="B153" t="s">
         <v>275</v>
       </c>
       <c r="C153">
@@ -5100,7 +5096,7 @@
       <c r="A154" t="s">
         <v>272</v>
       </c>
-      <c r="B154" s="5" t="s">
+      <c r="B154" t="s">
         <v>276</v>
       </c>
       <c r="C154">
@@ -5111,7 +5107,7 @@
       <c r="A155" t="s">
         <v>58</v>
       </c>
-      <c r="B155" s="5" t="s">
+      <c r="B155" t="s">
         <v>277</v>
       </c>
       <c r="C155">
@@ -5122,7 +5118,7 @@
       <c r="A156" t="s">
         <v>272</v>
       </c>
-      <c r="B156" s="5" t="s">
+      <c r="B156" t="s">
         <v>278</v>
       </c>
       <c r="C156">
@@ -5133,7 +5129,7 @@
       <c r="A157" t="s">
         <v>279</v>
       </c>
-      <c r="B157" s="5" t="s">
+      <c r="B157" t="s">
         <v>280</v>
       </c>
       <c r="C157">
@@ -5144,7 +5140,7 @@
       <c r="A158" t="s">
         <v>40</v>
       </c>
-      <c r="B158" s="5" t="s">
+      <c r="B158" t="s">
         <v>122</v>
       </c>
       <c r="C158">
@@ -5155,7 +5151,7 @@
       <c r="A159" t="s">
         <v>56</v>
       </c>
-      <c r="B159" s="5" t="s">
+      <c r="B159" t="s">
         <v>281</v>
       </c>
       <c r="C159">
@@ -5166,7 +5162,7 @@
       <c r="A160" t="s">
         <v>282</v>
       </c>
-      <c r="B160" s="5" t="s">
+      <c r="B160" t="s">
         <v>283</v>
       </c>
       <c r="C160">
@@ -5177,7 +5173,7 @@
       <c r="A161" t="s">
         <v>284</v>
       </c>
-      <c r="B161" s="5" t="s">
+      <c r="B161" t="s">
         <v>285</v>
       </c>
       <c r="C161">
@@ -5188,7 +5184,7 @@
       <c r="A162" t="s">
         <v>286</v>
       </c>
-      <c r="B162" s="5" t="s">
+      <c r="B162" t="s">
         <v>287</v>
       </c>
       <c r="C162">
@@ -5199,7 +5195,7 @@
       <c r="A163" t="s">
         <v>288</v>
       </c>
-      <c r="B163" s="5" t="s">
+      <c r="B163" t="s">
         <v>289</v>
       </c>
       <c r="C163">
@@ -5210,7 +5206,7 @@
       <c r="A164" t="s">
         <v>290</v>
       </c>
-      <c r="B164" s="5" t="s">
+      <c r="B164" t="s">
         <v>291</v>
       </c>
       <c r="C164">
@@ -5221,7 +5217,7 @@
       <c r="A165" t="s">
         <v>292</v>
       </c>
-      <c r="B165" s="5" t="s">
+      <c r="B165" t="s">
         <v>293</v>
       </c>
       <c r="C165">
@@ -5232,7 +5228,7 @@
       <c r="A166" t="s">
         <v>294</v>
       </c>
-      <c r="B166" s="5" t="s">
+      <c r="B166" t="s">
         <v>295</v>
       </c>
       <c r="C166">
@@ -5243,7 +5239,7 @@
       <c r="A167" t="s">
         <v>296</v>
       </c>
-      <c r="B167" s="5" t="s">
+      <c r="B167" t="s">
         <v>297</v>
       </c>
       <c r="C167">
@@ -5254,7 +5250,7 @@
       <c r="A168" t="s">
         <v>255</v>
       </c>
-      <c r="B168" s="5" t="s">
+      <c r="B168" t="s">
         <v>298</v>
       </c>
       <c r="C168">
@@ -5265,7 +5261,7 @@
       <c r="A169" t="s">
         <v>299</v>
       </c>
-      <c r="B169" s="5" t="s">
+      <c r="B169" t="s">
         <v>300</v>
       </c>
       <c r="C169">
@@ -5276,7 +5272,7 @@
       <c r="A170" t="s">
         <v>301</v>
       </c>
-      <c r="B170" s="5" t="s">
+      <c r="B170" t="s">
         <v>302</v>
       </c>
       <c r="C170">
@@ -5287,7 +5283,7 @@
       <c r="A171" t="s">
         <v>303</v>
       </c>
-      <c r="B171" s="5" t="s">
+      <c r="B171" t="s">
         <v>304</v>
       </c>
       <c r="C171">
@@ -5298,7 +5294,7 @@
       <c r="A172" t="s">
         <v>305</v>
       </c>
-      <c r="B172" s="5" t="s">
+      <c r="B172" t="s">
         <v>306</v>
       </c>
       <c r="C172">
@@ -5309,7 +5305,7 @@
       <c r="A173" t="s">
         <v>307</v>
       </c>
-      <c r="B173" s="5" t="s">
+      <c r="B173" t="s">
         <v>308</v>
       </c>
       <c r="C173">
@@ -5320,7 +5316,7 @@
       <c r="A174" t="s">
         <v>309</v>
       </c>
-      <c r="B174" s="5" t="s">
+      <c r="B174" t="s">
         <v>310</v>
       </c>
       <c r="C174">
@@ -5331,7 +5327,7 @@
       <c r="A175" t="s">
         <v>311</v>
       </c>
-      <c r="B175" s="5" t="s">
+      <c r="B175" t="s">
         <v>312</v>
       </c>
       <c r="C175">
@@ -5342,7 +5338,7 @@
       <c r="A176" t="s">
         <v>313</v>
       </c>
-      <c r="B176" s="5" t="s">
+      <c r="B176" t="s">
         <v>314</v>
       </c>
       <c r="C176">
@@ -5353,7 +5349,7 @@
       <c r="A177" t="s">
         <v>315</v>
       </c>
-      <c r="B177" s="5" t="s">
+      <c r="B177" t="s">
         <v>316</v>
       </c>
       <c r="C177">
@@ -5364,7 +5360,7 @@
       <c r="A178" t="s">
         <v>317</v>
       </c>
-      <c r="B178" s="5" t="s">
+      <c r="B178" t="s">
         <v>318</v>
       </c>
       <c r="C178">
@@ -5375,7 +5371,7 @@
       <c r="A179" t="s">
         <v>319</v>
       </c>
-      <c r="B179" s="5" t="s">
+      <c r="B179" t="s">
         <v>25</v>
       </c>
       <c r="C179">
@@ -5386,7 +5382,7 @@
       <c r="A180" t="s">
         <v>320</v>
       </c>
-      <c r="B180" s="5" t="s">
+      <c r="B180" t="s">
         <v>321</v>
       </c>
       <c r="C180">
@@ -5397,7 +5393,7 @@
       <c r="A181" t="s">
         <v>322</v>
       </c>
-      <c r="B181" s="5" t="s">
+      <c r="B181" t="s">
         <v>323</v>
       </c>
       <c r="C181">
@@ -5408,7 +5404,7 @@
       <c r="A182" t="s">
         <v>324</v>
       </c>
-      <c r="B182" s="5" t="s">
+      <c r="B182" t="s">
         <v>325</v>
       </c>
       <c r="C182">
@@ -5419,7 +5415,7 @@
       <c r="A183" t="s">
         <v>326</v>
       </c>
-      <c r="B183" s="5" t="s">
+      <c r="B183" t="s">
         <v>327</v>
       </c>
       <c r="C183">
@@ -5430,7 +5426,7 @@
       <c r="A184" t="s">
         <v>328</v>
       </c>
-      <c r="B184" s="5" t="s">
+      <c r="B184" t="s">
         <v>329</v>
       </c>
       <c r="C184">
@@ -5441,7 +5437,7 @@
       <c r="A185" t="s">
         <v>330</v>
       </c>
-      <c r="B185" s="5" t="s">
+      <c r="B185" t="s">
         <v>331</v>
       </c>
       <c r="C185">
@@ -5452,7 +5448,7 @@
       <c r="A186" t="s">
         <v>332</v>
       </c>
-      <c r="B186" s="5" t="s">
+      <c r="B186" t="s">
         <v>333</v>
       </c>
       <c r="C186">
@@ -5463,7 +5459,7 @@
       <c r="A187" t="s">
         <v>334</v>
       </c>
-      <c r="B187" s="5" t="s">
+      <c r="B187" t="s">
         <v>335</v>
       </c>
       <c r="C187">
@@ -5474,7 +5470,7 @@
       <c r="A188" t="s">
         <v>336</v>
       </c>
-      <c r="B188" s="5" t="s">
+      <c r="B188" t="s">
         <v>337</v>
       </c>
       <c r="C188">
@@ -5485,7 +5481,7 @@
       <c r="A189" t="s">
         <v>338</v>
       </c>
-      <c r="B189" s="5" t="s">
+      <c r="B189" t="s">
         <v>339</v>
       </c>
       <c r="C189">
@@ -5496,7 +5492,7 @@
       <c r="A190" t="s">
         <v>340</v>
       </c>
-      <c r="B190" s="5" t="s">
+      <c r="B190" t="s">
         <v>341</v>
       </c>
       <c r="C190">
@@ -5507,7 +5503,7 @@
       <c r="A191" t="s">
         <v>342</v>
       </c>
-      <c r="B191" s="5" t="s">
+      <c r="B191" t="s">
         <v>25</v>
       </c>
       <c r="C191">
@@ -5518,7 +5514,7 @@
       <c r="A192" t="s">
         <v>343</v>
       </c>
-      <c r="B192" s="5" t="s">
+      <c r="B192" t="s">
         <v>344</v>
       </c>
       <c r="C192">
@@ -5529,7 +5525,7 @@
       <c r="A193" t="s">
         <v>345</v>
       </c>
-      <c r="B193" s="5" t="s">
+      <c r="B193" t="s">
         <v>346</v>
       </c>
       <c r="C193">
@@ -5540,7 +5536,7 @@
       <c r="A194" t="s">
         <v>53</v>
       </c>
-      <c r="B194" s="5" t="s">
+      <c r="B194" t="s">
         <v>347</v>
       </c>
       <c r="C194">
@@ -5551,7 +5547,7 @@
       <c r="A195" t="s">
         <v>348</v>
       </c>
-      <c r="B195" s="5" t="s">
+      <c r="B195" t="s">
         <v>349</v>
       </c>
       <c r="C195">
@@ -5562,7 +5558,7 @@
       <c r="A196" t="s">
         <v>350</v>
       </c>
-      <c r="B196" s="5" t="s">
+      <c r="B196" t="s">
         <v>351</v>
       </c>
       <c r="C196">
@@ -5573,7 +5569,7 @@
       <c r="A197" t="s">
         <v>352</v>
       </c>
-      <c r="B197" s="5" t="s">
+      <c r="B197" t="s">
         <v>353</v>
       </c>
       <c r="C197">
@@ -5584,7 +5580,7 @@
       <c r="A198" t="s">
         <v>354</v>
       </c>
-      <c r="B198" s="5" t="s">
+      <c r="B198" t="s">
         <v>355</v>
       </c>
       <c r="C198">
@@ -5595,7 +5591,7 @@
       <c r="A199" t="s">
         <v>356</v>
       </c>
-      <c r="B199" s="5" t="s">
+      <c r="B199" t="s">
         <v>357</v>
       </c>
       <c r="C199">
@@ -5606,7 +5602,7 @@
       <c r="A200" t="s">
         <v>358</v>
       </c>
-      <c r="B200" s="5" t="s">
+      <c r="B200" t="s">
         <v>359</v>
       </c>
       <c r="C200">
@@ -5617,7 +5613,7 @@
       <c r="A201" t="s">
         <v>360</v>
       </c>
-      <c r="B201" s="5" t="s">
+      <c r="B201" t="s">
         <v>361</v>
       </c>
       <c r="C201">
@@ -5628,7 +5624,7 @@
       <c r="A202" t="s">
         <v>362</v>
       </c>
-      <c r="B202" s="5" t="s">
+      <c r="B202" t="s">
         <v>363</v>
       </c>
       <c r="C202">
@@ -5639,7 +5635,7 @@
       <c r="A203" t="s">
         <v>1</v>
       </c>
-      <c r="B203" s="5" t="s">
+      <c r="B203" t="s">
         <v>2</v>
       </c>
       <c r="C203">
@@ -5650,7 +5646,7 @@
       <c r="A204" t="s">
         <v>9</v>
       </c>
-      <c r="B204" s="5" t="s">
+      <c r="B204" t="s">
         <v>10</v>
       </c>
       <c r="C204">
@@ -5661,7 +5657,7 @@
       <c r="A205" t="s">
         <v>11</v>
       </c>
-      <c r="B205" s="5" t="s">
+      <c r="B205" t="s">
         <v>12</v>
       </c>
       <c r="C205">
@@ -5672,7 +5668,7 @@
       <c r="A206" t="s">
         <v>5</v>
       </c>
-      <c r="B206" s="5" t="s">
+      <c r="B206" t="s">
         <v>6</v>
       </c>
       <c r="C206">
@@ -5683,7 +5679,7 @@
       <c r="A207" t="s">
         <v>7</v>
       </c>
-      <c r="B207" s="5" t="s">
+      <c r="B207" t="s">
         <v>8</v>
       </c>
       <c r="C207">
@@ -5694,7 +5690,7 @@
       <c r="A208" t="s">
         <v>16</v>
       </c>
-      <c r="B208" s="5" t="s">
+      <c r="B208" t="s">
         <v>17</v>
       </c>
       <c r="C208">
@@ -5705,7 +5701,7 @@
       <c r="A209" t="s">
         <v>13</v>
       </c>
-      <c r="B209" s="5" t="s">
+      <c r="B209" t="s">
         <v>14</v>
       </c>
       <c r="C209">
@@ -5716,7 +5712,7 @@
       <c r="A210" t="s">
         <v>3</v>
       </c>
-      <c r="B210" s="5" t="s">
+      <c r="B210" t="s">
         <v>4</v>
       </c>
       <c r="C210">
@@ -5727,7 +5723,7 @@
       <c r="A211" t="s">
         <v>5</v>
       </c>
-      <c r="B211" s="5" t="s">
+      <c r="B211" t="s">
         <v>15</v>
       </c>
       <c r="C211">
@@ -5738,7 +5734,7 @@
       <c r="A212" t="s">
         <v>364</v>
       </c>
-      <c r="B212" s="5" t="s">
+      <c r="B212" t="s">
         <v>365</v>
       </c>
       <c r="C212">
@@ -5749,7 +5745,7 @@
       <c r="A213" t="s">
         <v>148</v>
       </c>
-      <c r="B213" s="5" t="s">
+      <c r="B213" t="s">
         <v>366</v>
       </c>
       <c r="C213">
@@ -5760,7 +5756,7 @@
       <c r="A214" t="s">
         <v>367</v>
       </c>
-      <c r="B214" s="5" t="s">
+      <c r="B214" t="s">
         <v>368</v>
       </c>
       <c r="C214">
@@ -5771,7 +5767,7 @@
       <c r="A215" t="s">
         <v>369</v>
       </c>
-      <c r="B215" s="5" t="s">
+      <c r="B215" t="s">
         <v>95</v>
       </c>
       <c r="C215">
@@ -5782,7 +5778,7 @@
       <c r="A216" t="s">
         <v>370</v>
       </c>
-      <c r="B216" s="5" t="s">
+      <c r="B216" t="s">
         <v>144</v>
       </c>
       <c r="C216">
@@ -5793,7 +5789,7 @@
       <c r="A217" t="s">
         <v>371</v>
       </c>
-      <c r="B217" s="5" t="s">
+      <c r="B217" t="s">
         <v>372</v>
       </c>
       <c r="C217">
@@ -5804,7 +5800,7 @@
       <c r="A218" t="s">
         <v>373</v>
       </c>
-      <c r="B218" s="5" t="s">
+      <c r="B218" t="s">
         <v>374</v>
       </c>
       <c r="C218">
@@ -5815,7 +5811,7 @@
       <c r="A219" t="s">
         <v>375</v>
       </c>
-      <c r="B219" s="5" t="s">
+      <c r="B219" t="s">
         <v>376</v>
       </c>
       <c r="C219">
@@ -5826,7 +5822,7 @@
       <c r="A220" t="s">
         <v>377</v>
       </c>
-      <c r="B220" s="5" t="s">
+      <c r="B220" t="s">
         <v>378</v>
       </c>
       <c r="C220">
@@ -5837,7 +5833,7 @@
       <c r="A221" t="s">
         <v>204</v>
       </c>
-      <c r="B221" s="5" t="s">
+      <c r="B221" t="s">
         <v>252</v>
       </c>
       <c r="C221">
@@ -5848,7 +5844,7 @@
       <c r="A222" t="s">
         <v>379</v>
       </c>
-      <c r="B222" s="5" t="s">
+      <c r="B222" t="s">
         <v>380</v>
       </c>
       <c r="C222">
@@ -5859,7 +5855,7 @@
       <c r="A223" t="s">
         <v>381</v>
       </c>
-      <c r="B223" s="5" t="s">
+      <c r="B223" t="s">
         <v>382</v>
       </c>
       <c r="C223">
@@ -5870,7 +5866,7 @@
       <c r="A224" t="s">
         <v>383</v>
       </c>
-      <c r="B224" s="5" t="s">
+      <c r="B224" t="s">
         <v>384</v>
       </c>
       <c r="C224">
@@ -5881,7 +5877,7 @@
       <c r="A225" t="s">
         <v>49</v>
       </c>
-      <c r="B225" s="5" t="s">
+      <c r="B225" t="s">
         <v>385</v>
       </c>
       <c r="C225">
@@ -5892,7 +5888,7 @@
       <c r="A226" t="s">
         <v>117</v>
       </c>
-      <c r="B226" s="5" t="s">
+      <c r="B226" t="s">
         <v>386</v>
       </c>
       <c r="C226">
@@ -5903,7 +5899,7 @@
       <c r="A227" t="s">
         <v>387</v>
       </c>
-      <c r="B227" s="5" t="s">
+      <c r="B227" t="s">
         <v>388</v>
       </c>
       <c r="C227">
@@ -5914,7 +5910,7 @@
       <c r="A228" t="s">
         <v>389</v>
       </c>
-      <c r="B228" s="5" t="s">
+      <c r="B228" t="s">
         <v>390</v>
       </c>
       <c r="C228">
@@ -5925,7 +5921,7 @@
       <c r="A229" t="s">
         <v>391</v>
       </c>
-      <c r="B229" s="5" t="s">
+      <c r="B229" t="s">
         <v>392</v>
       </c>
       <c r="C229">
@@ -5936,7 +5932,7 @@
       <c r="A230" t="s">
         <v>393</v>
       </c>
-      <c r="B230" s="5" t="s">
+      <c r="B230" t="s">
         <v>394</v>
       </c>
       <c r="C230">
@@ -5947,7 +5943,7 @@
       <c r="A231" t="s">
         <v>245</v>
       </c>
-      <c r="B231" s="5" t="s">
+      <c r="B231" t="s">
         <v>395</v>
       </c>
       <c r="C231">
@@ -5958,7 +5954,7 @@
       <c r="A232" t="s">
         <v>396</v>
       </c>
-      <c r="B232" s="5" t="s">
+      <c r="B232" t="s">
         <v>397</v>
       </c>
       <c r="C232">
@@ -5969,7 +5965,7 @@
       <c r="A233" t="s">
         <v>398</v>
       </c>
-      <c r="B233" s="5" t="s">
+      <c r="B233" t="s">
         <v>399</v>
       </c>
       <c r="C233">
@@ -5980,7 +5976,7 @@
       <c r="A234" t="s">
         <v>145</v>
       </c>
-      <c r="B234" s="5" t="s">
+      <c r="B234" t="s">
         <v>400</v>
       </c>
       <c r="C234">
@@ -5991,7 +5987,7 @@
       <c r="A235" t="s">
         <v>401</v>
       </c>
-      <c r="B235" s="5" t="s">
+      <c r="B235" t="s">
         <v>402</v>
       </c>
       <c r="C235">
@@ -6002,7 +5998,7 @@
       <c r="A236" t="s">
         <v>403</v>
       </c>
-      <c r="B236" s="5" t="s">
+      <c r="B236" t="s">
         <v>404</v>
       </c>
       <c r="C236">
@@ -6013,7 +6009,7 @@
       <c r="A237" t="s">
         <v>405</v>
       </c>
-      <c r="B237" s="5" t="s">
+      <c r="B237" t="s">
         <v>406</v>
       </c>
       <c r="C237">
@@ -6024,7 +6020,7 @@
       <c r="A238" t="s">
         <v>407</v>
       </c>
-      <c r="B238" s="5" t="s">
+      <c r="B238" t="s">
         <v>408</v>
       </c>
       <c r="C238">
@@ -6035,7 +6031,7 @@
       <c r="A239" t="s">
         <v>64</v>
       </c>
-      <c r="B239" s="5" t="s">
+      <c r="B239" t="s">
         <v>409</v>
       </c>
       <c r="C239">
@@ -6046,7 +6042,7 @@
       <c r="A240" t="s">
         <v>410</v>
       </c>
-      <c r="B240" s="5" t="s">
+      <c r="B240" t="s">
         <v>411</v>
       </c>
       <c r="C240">
@@ -6057,7 +6053,7 @@
       <c r="A241" t="s">
         <v>412</v>
       </c>
-      <c r="B241" s="5" t="s">
+      <c r="B241" t="s">
         <v>413</v>
       </c>
       <c r="C241">
@@ -6068,7 +6064,7 @@
       <c r="A242" t="s">
         <v>414</v>
       </c>
-      <c r="B242" s="5" t="s">
+      <c r="B242" t="s">
         <v>415</v>
       </c>
       <c r="C242">
@@ -6079,7 +6075,7 @@
       <c r="A243" t="s">
         <v>416</v>
       </c>
-      <c r="B243" s="5" t="s">
+      <c r="B243" t="s">
         <v>417</v>
       </c>
       <c r="C243">
@@ -6090,7 +6086,7 @@
       <c r="A244" t="s">
         <v>418</v>
       </c>
-      <c r="B244" s="5" t="s">
+      <c r="B244" t="s">
         <v>419</v>
       </c>
       <c r="C244">
@@ -6101,7 +6097,7 @@
       <c r="A245" t="s">
         <v>420</v>
       </c>
-      <c r="B245" s="5" t="s">
+      <c r="B245" t="s">
         <v>421</v>
       </c>
       <c r="C245">
@@ -6112,7 +6108,7 @@
       <c r="A246" t="s">
         <v>422</v>
       </c>
-      <c r="B246" s="5" t="s">
+      <c r="B246" t="s">
         <v>423</v>
       </c>
       <c r="C246">
@@ -6123,7 +6119,7 @@
       <c r="A247" t="s">
         <v>424</v>
       </c>
-      <c r="B247" s="5" t="s">
+      <c r="B247" t="s">
         <v>425</v>
       </c>
       <c r="C247">
@@ -6134,7 +6130,7 @@
       <c r="A248" t="s">
         <v>426</v>
       </c>
-      <c r="B248" s="5" t="s">
+      <c r="B248" t="s">
         <v>427</v>
       </c>
       <c r="C248">
@@ -6145,7 +6141,7 @@
       <c r="A249" t="s">
         <v>428</v>
       </c>
-      <c r="B249" s="5" t="s">
+      <c r="B249" t="s">
         <v>429</v>
       </c>
       <c r="C249">
@@ -6156,7 +6152,7 @@
       <c r="A250" t="s">
         <v>430</v>
       </c>
-      <c r="B250" s="5" t="s">
+      <c r="B250" t="s">
         <v>431</v>
       </c>
       <c r="C250">
@@ -6167,7 +6163,7 @@
       <c r="A251" t="s">
         <v>432</v>
       </c>
-      <c r="B251" s="5" t="s">
+      <c r="B251" t="s">
         <v>433</v>
       </c>
       <c r="C251">
@@ -6178,7 +6174,7 @@
       <c r="A252" t="s">
         <v>434</v>
       </c>
-      <c r="B252" s="5" t="s">
+      <c r="B252" t="s">
         <v>435</v>
       </c>
       <c r="C252">
@@ -6189,7 +6185,7 @@
       <c r="A253" t="s">
         <v>436</v>
       </c>
-      <c r="B253" s="5" t="s">
+      <c r="B253" t="s">
         <v>437</v>
       </c>
       <c r="C253">
@@ -6200,7 +6196,7 @@
       <c r="A254" t="s">
         <v>438</v>
       </c>
-      <c r="B254" s="5" t="s">
+      <c r="B254" t="s">
         <v>439</v>
       </c>
       <c r="C254">
@@ -6211,7 +6207,7 @@
       <c r="A255" t="s">
         <v>86</v>
       </c>
-      <c r="B255" s="5" t="s">
+      <c r="B255" t="s">
         <v>440</v>
       </c>
       <c r="C255">
@@ -6222,7 +6218,7 @@
       <c r="A256" t="s">
         <v>436</v>
       </c>
-      <c r="B256" s="5" t="s">
+      <c r="B256" t="s">
         <v>441</v>
       </c>
       <c r="C256">
@@ -6233,7 +6229,7 @@
       <c r="A257" t="s">
         <v>418</v>
       </c>
-      <c r="B257" s="5" t="s">
+      <c r="B257" t="s">
         <v>442</v>
       </c>
       <c r="C257">
@@ -6244,7 +6240,7 @@
       <c r="A258" t="s">
         <v>443</v>
       </c>
-      <c r="B258" s="5" t="s">
+      <c r="B258" t="s">
         <v>444</v>
       </c>
       <c r="C258">
@@ -6255,7 +6251,7 @@
       <c r="A259" t="s">
         <v>445</v>
       </c>
-      <c r="B259" s="5" t="s">
+      <c r="B259" t="s">
         <v>446</v>
       </c>
       <c r="C259">
@@ -6266,7 +6262,7 @@
       <c r="A260" t="s">
         <v>447</v>
       </c>
-      <c r="B260" s="5" t="s">
+      <c r="B260" t="s">
         <v>122</v>
       </c>
       <c r="C260">
@@ -6277,7 +6273,7 @@
       <c r="A261" t="s">
         <v>448</v>
       </c>
-      <c r="B261" s="5" t="s">
+      <c r="B261" t="s">
         <v>449</v>
       </c>
       <c r="C261">
@@ -6288,7 +6284,7 @@
       <c r="A262" t="s">
         <v>450</v>
       </c>
-      <c r="B262" s="5" t="s">
+      <c r="B262" t="s">
         <v>451</v>
       </c>
       <c r="C262">
@@ -6299,7 +6295,7 @@
       <c r="A263" t="s">
         <v>452</v>
       </c>
-      <c r="B263" s="5" t="s">
+      <c r="B263" t="s">
         <v>453</v>
       </c>
       <c r="C263">
@@ -6310,7 +6306,7 @@
       <c r="A264" t="s">
         <v>454</v>
       </c>
-      <c r="B264" s="5" t="s">
+      <c r="B264" t="s">
         <v>455</v>
       </c>
       <c r="C264">
@@ -6321,7 +6317,7 @@
       <c r="A265" t="s">
         <v>456</v>
       </c>
-      <c r="B265" s="5" t="s">
+      <c r="B265" t="s">
         <v>457</v>
       </c>
       <c r="C265">
@@ -6332,7 +6328,7 @@
       <c r="A266" t="s">
         <v>458</v>
       </c>
-      <c r="B266" s="5" t="s">
+      <c r="B266" t="s">
         <v>459</v>
       </c>
       <c r="C266">
@@ -6343,7 +6339,7 @@
       <c r="A267" t="s">
         <v>460</v>
       </c>
-      <c r="B267" s="5" t="s">
+      <c r="B267" t="s">
         <v>461</v>
       </c>
       <c r="C267">
@@ -6354,7 +6350,7 @@
       <c r="A268" t="s">
         <v>462</v>
       </c>
-      <c r="B268" s="5" t="s">
+      <c r="B268" t="s">
         <v>463</v>
       </c>
       <c r="C268">
@@ -6365,7 +6361,7 @@
       <c r="A269" t="s">
         <v>464</v>
       </c>
-      <c r="B269" s="5" t="s">
+      <c r="B269" t="s">
         <v>465</v>
       </c>
       <c r="C269">
@@ -6376,7 +6372,7 @@
       <c r="A270" t="s">
         <v>466</v>
       </c>
-      <c r="B270" s="5" t="s">
+      <c r="B270" t="s">
         <v>467</v>
       </c>
       <c r="C270">
@@ -6387,7 +6383,7 @@
       <c r="A271" t="s">
         <v>430</v>
       </c>
-      <c r="B271" s="5" t="s">
+      <c r="B271" t="s">
         <v>468</v>
       </c>
       <c r="C271">
@@ -6398,7 +6394,7 @@
       <c r="A272" t="s">
         <v>469</v>
       </c>
-      <c r="B272" s="5" t="s">
+      <c r="B272" t="s">
         <v>470</v>
       </c>
       <c r="C272">
@@ -6409,7 +6405,7 @@
       <c r="A273" t="s">
         <v>471</v>
       </c>
-      <c r="B273" s="5" t="s">
+      <c r="B273" t="s">
         <v>472</v>
       </c>
       <c r="C273">
@@ -6420,7 +6416,7 @@
       <c r="A274" t="s">
         <v>473</v>
       </c>
-      <c r="B274" s="5" t="s">
+      <c r="B274" t="s">
         <v>195</v>
       </c>
       <c r="C274">
@@ -6431,7 +6427,7 @@
       <c r="A275" t="s">
         <v>474</v>
       </c>
-      <c r="B275" s="5" t="s">
+      <c r="B275" t="s">
         <v>475</v>
       </c>
       <c r="C275">
@@ -6442,7 +6438,7 @@
       <c r="A276" t="s">
         <v>476</v>
       </c>
-      <c r="B276" s="5" t="s">
+      <c r="B276" t="s">
         <v>477</v>
       </c>
       <c r="C276">
@@ -6453,7 +6449,7 @@
       <c r="A277" t="s">
         <v>478</v>
       </c>
-      <c r="B277" s="5" t="s">
+      <c r="B277" t="s">
         <v>109</v>
       </c>
       <c r="C277">
@@ -6464,7 +6460,7 @@
       <c r="A278" t="s">
         <v>479</v>
       </c>
-      <c r="B278" s="5" t="s">
+      <c r="B278" t="s">
         <v>480</v>
       </c>
       <c r="C278">
@@ -6475,7 +6471,7 @@
       <c r="A279" t="s">
         <v>481</v>
       </c>
-      <c r="B279" s="5" t="s">
+      <c r="B279" t="s">
         <v>482</v>
       </c>
       <c r="C279">
@@ -6486,7 +6482,7 @@
       <c r="A280" t="s">
         <v>483</v>
       </c>
-      <c r="B280" s="5" t="s">
+      <c r="B280" t="s">
         <v>484</v>
       </c>
       <c r="C280">
@@ -6497,7 +6493,7 @@
       <c r="A281" t="s">
         <v>485</v>
       </c>
-      <c r="B281" s="5" t="s">
+      <c r="B281" t="s">
         <v>486</v>
       </c>
       <c r="C281">
@@ -6508,7 +6504,7 @@
       <c r="A282" t="s">
         <v>56</v>
       </c>
-      <c r="B282" s="5" t="s">
+      <c r="B282" t="s">
         <v>487</v>
       </c>
       <c r="C282">
@@ -6519,7 +6515,7 @@
       <c r="A283" t="s">
         <v>145</v>
       </c>
-      <c r="B283" s="5" t="s">
+      <c r="B283" t="s">
         <v>488</v>
       </c>
       <c r="C283">
@@ -6530,7 +6526,7 @@
       <c r="A284" t="s">
         <v>489</v>
       </c>
-      <c r="B284" s="5" t="s">
+      <c r="B284" t="s">
         <v>490</v>
       </c>
       <c r="C284">
@@ -6541,7 +6537,7 @@
       <c r="A285" t="s">
         <v>491</v>
       </c>
-      <c r="B285" s="5" t="s">
+      <c r="B285" t="s">
         <v>492</v>
       </c>
       <c r="C285">
@@ -6552,7 +6548,7 @@
       <c r="A286" t="s">
         <v>49</v>
       </c>
-      <c r="B286" s="5" t="s">
+      <c r="B286" t="s">
         <v>493</v>
       </c>
       <c r="C286">
@@ -6563,7 +6559,7 @@
       <c r="A287" t="s">
         <v>494</v>
       </c>
-      <c r="B287" s="5" t="s">
+      <c r="B287" t="s">
         <v>495</v>
       </c>
       <c r="C287">
@@ -6574,7 +6570,7 @@
       <c r="A288" t="s">
         <v>496</v>
       </c>
-      <c r="B288" s="5" t="s">
+      <c r="B288" t="s">
         <v>122</v>
       </c>
       <c r="C288">
@@ -6585,7 +6581,7 @@
       <c r="A289" t="s">
         <v>497</v>
       </c>
-      <c r="B289" s="5" t="s">
+      <c r="B289" t="s">
         <v>25</v>
       </c>
       <c r="C289">
@@ -6596,7 +6592,7 @@
       <c r="A290" t="s">
         <v>496</v>
       </c>
-      <c r="B290" s="5" t="s">
+      <c r="B290" t="s">
         <v>498</v>
       </c>
       <c r="C290">
@@ -6607,7 +6603,7 @@
       <c r="A291" t="s">
         <v>499</v>
       </c>
-      <c r="B291" s="5" t="s">
+      <c r="B291" t="s">
         <v>500</v>
       </c>
       <c r="C291">
@@ -6618,7 +6614,7 @@
       <c r="A292" t="s">
         <v>501</v>
       </c>
-      <c r="B292" s="5" t="s">
+      <c r="B292" t="s">
         <v>502</v>
       </c>
       <c r="C292">
@@ -6629,7 +6625,7 @@
       <c r="A293" t="s">
         <v>503</v>
       </c>
-      <c r="B293" s="5" t="s">
+      <c r="B293" t="s">
         <v>504</v>
       </c>
       <c r="C293">
@@ -6640,7 +6636,7 @@
       <c r="A294" t="s">
         <v>110</v>
       </c>
-      <c r="B294" s="5" t="s">
+      <c r="B294" t="s">
         <v>505</v>
       </c>
       <c r="C294">
@@ -6651,7 +6647,7 @@
       <c r="A295" t="s">
         <v>506</v>
       </c>
-      <c r="B295" s="5" t="s">
+      <c r="B295" t="s">
         <v>507</v>
       </c>
       <c r="C295">
@@ -6662,7 +6658,7 @@
       <c r="A296" t="s">
         <v>282</v>
       </c>
-      <c r="B296" s="5" t="s">
+      <c r="B296" t="s">
         <v>508</v>
       </c>
       <c r="C296">
@@ -6673,7 +6669,7 @@
       <c r="A297" t="s">
         <v>110</v>
       </c>
-      <c r="B297" s="5" t="s">
+      <c r="B297" t="s">
         <v>509</v>
       </c>
       <c r="C297">
@@ -6684,7 +6680,7 @@
       <c r="A298" t="s">
         <v>510</v>
       </c>
-      <c r="B298" s="5" t="s">
+      <c r="B298" t="s">
         <v>511</v>
       </c>
       <c r="C298">
@@ -6695,7 +6691,7 @@
       <c r="A299" t="s">
         <v>512</v>
       </c>
-      <c r="B299" s="5" t="s">
+      <c r="B299" t="s">
         <v>513</v>
       </c>
       <c r="C299">
@@ -6706,7 +6702,7 @@
       <c r="A300" t="s">
         <v>86</v>
       </c>
-      <c r="B300" s="5" t="s">
+      <c r="B300" t="s">
         <v>514</v>
       </c>
       <c r="C300">
@@ -6717,7 +6713,7 @@
       <c r="A301" t="s">
         <v>140</v>
       </c>
-      <c r="B301" s="5" t="s">
+      <c r="B301" t="s">
         <v>515</v>
       </c>
       <c r="C301">
@@ -6728,7 +6724,7 @@
       <c r="A302" t="s">
         <v>516</v>
       </c>
-      <c r="B302" s="5" t="s">
+      <c r="B302" t="s">
         <v>517</v>
       </c>
       <c r="C302">
@@ -6739,7 +6735,7 @@
       <c r="A303" t="s">
         <v>518</v>
       </c>
-      <c r="B303" s="5" t="s">
+      <c r="B303" t="s">
         <v>519</v>
       </c>
       <c r="C303">
@@ -6750,7 +6746,7 @@
       <c r="A304" t="s">
         <v>520</v>
       </c>
-      <c r="B304" s="5" t="s">
+      <c r="B304" t="s">
         <v>521</v>
       </c>
       <c r="C304">
@@ -6761,7 +6757,7 @@
       <c r="A305" t="s">
         <v>522</v>
       </c>
-      <c r="B305" s="5" t="s">
+      <c r="B305" t="s">
         <v>523</v>
       </c>
       <c r="C305">
@@ -6772,7 +6768,7 @@
       <c r="A306" t="s">
         <v>524</v>
       </c>
-      <c r="B306" s="5" t="s">
+      <c r="B306" t="s">
         <v>525</v>
       </c>
       <c r="C306">
@@ -6783,7 +6779,7 @@
       <c r="A307" t="s">
         <v>526</v>
       </c>
-      <c r="B307" s="5" t="s">
+      <c r="B307" t="s">
         <v>527</v>
       </c>
       <c r="C307">
@@ -6794,7 +6790,7 @@
       <c r="A308" t="s">
         <v>106</v>
       </c>
-      <c r="B308" s="5" t="s">
+      <c r="B308" t="s">
         <v>528</v>
       </c>
       <c r="C308">
@@ -6805,7 +6801,7 @@
       <c r="A309" t="s">
         <v>529</v>
       </c>
-      <c r="B309" s="5" t="s">
+      <c r="B309" t="s">
         <v>530</v>
       </c>
       <c r="C309">
@@ -6816,7 +6812,7 @@
       <c r="A310" t="s">
         <v>531</v>
       </c>
-      <c r="B310" s="5" t="s">
+      <c r="B310" t="s">
         <v>532</v>
       </c>
       <c r="C310">
@@ -6827,7 +6823,7 @@
       <c r="A311" t="s">
         <v>533</v>
       </c>
-      <c r="B311" s="5" t="s">
+      <c r="B311" t="s">
         <v>534</v>
       </c>
       <c r="C311">
@@ -6838,7 +6834,7 @@
       <c r="A312" t="s">
         <v>535</v>
       </c>
-      <c r="B312" s="5" t="s">
+      <c r="B312" t="s">
         <v>536</v>
       </c>
       <c r="C312">
@@ -6849,7 +6845,7 @@
       <c r="A313" t="s">
         <v>537</v>
       </c>
-      <c r="B313" s="5" t="s">
+      <c r="B313" t="s">
         <v>538</v>
       </c>
       <c r="C313">
@@ -6860,7 +6856,7 @@
       <c r="A314" t="s">
         <v>36</v>
       </c>
-      <c r="B314" s="5" t="s">
+      <c r="B314" t="s">
         <v>539</v>
       </c>
       <c r="C314">
@@ -6871,7 +6867,7 @@
       <c r="A315" t="s">
         <v>540</v>
       </c>
-      <c r="B315" s="5" t="s">
+      <c r="B315" t="s">
         <v>541</v>
       </c>
       <c r="C315">
@@ -6882,7 +6878,7 @@
       <c r="A316" t="s">
         <v>542</v>
       </c>
-      <c r="B316" s="5" t="s">
+      <c r="B316" t="s">
         <v>543</v>
       </c>
       <c r="C316">
@@ -6893,7 +6889,7 @@
       <c r="A317" t="s">
         <v>544</v>
       </c>
-      <c r="B317" s="5" t="s">
+      <c r="B317" t="s">
         <v>545</v>
       </c>
       <c r="C317">
@@ -6904,7 +6900,7 @@
       <c r="A318" t="s">
         <v>546</v>
       </c>
-      <c r="B318" s="5" t="s">
+      <c r="B318" t="s">
         <v>547</v>
       </c>
       <c r="C318">
@@ -6915,7 +6911,7 @@
       <c r="A319" t="s">
         <v>548</v>
       </c>
-      <c r="B319" s="5" t="s">
+      <c r="B319" t="s">
         <v>549</v>
       </c>
       <c r="C319">
@@ -6926,7 +6922,7 @@
       <c r="A320" t="s">
         <v>550</v>
       </c>
-      <c r="B320" s="5" t="s">
+      <c r="B320" t="s">
         <v>551</v>
       </c>
       <c r="C320">
@@ -6937,7 +6933,7 @@
       <c r="A321" t="s">
         <v>552</v>
       </c>
-      <c r="B321" s="5" t="s">
+      <c r="B321" t="s">
         <v>553</v>
       </c>
       <c r="C321">
@@ -6948,7 +6944,7 @@
       <c r="A322" t="s">
         <v>554</v>
       </c>
-      <c r="B322" s="5" t="s">
+      <c r="B322" t="s">
         <v>555</v>
       </c>
       <c r="C322">
@@ -6959,7 +6955,7 @@
       <c r="A323" t="s">
         <v>489</v>
       </c>
-      <c r="B323" s="5" t="s">
+      <c r="B323" t="s">
         <v>556</v>
       </c>
       <c r="C323">
@@ -6970,7 +6966,7 @@
       <c r="A324" t="s">
         <v>557</v>
       </c>
-      <c r="B324" s="5" t="s">
+      <c r="B324" t="s">
         <v>558</v>
       </c>
       <c r="C324">
@@ -6981,7 +6977,7 @@
       <c r="A325" t="s">
         <v>559</v>
       </c>
-      <c r="B325" s="5" t="s">
+      <c r="B325" t="s">
         <v>560</v>
       </c>
       <c r="C325">
@@ -6992,7 +6988,7 @@
       <c r="A326" t="s">
         <v>424</v>
       </c>
-      <c r="B326" s="5" t="s">
+      <c r="B326" t="s">
         <v>561</v>
       </c>
       <c r="C326">
@@ -7003,7 +6999,7 @@
       <c r="A327" t="s">
         <v>562</v>
       </c>
-      <c r="B327" s="5" t="s">
+      <c r="B327" t="s">
         <v>563</v>
       </c>
       <c r="C327">
@@ -7014,7 +7010,7 @@
       <c r="A328" t="s">
         <v>145</v>
       </c>
-      <c r="B328" s="5" t="s">
+      <c r="B328" t="s">
         <v>564</v>
       </c>
       <c r="C328">
@@ -7025,7 +7021,7 @@
       <c r="A329" t="s">
         <v>565</v>
       </c>
-      <c r="B329" s="5" t="s">
+      <c r="B329" t="s">
         <v>566</v>
       </c>
       <c r="C329">
@@ -7036,7 +7032,7 @@
       <c r="A330" t="s">
         <v>567</v>
       </c>
-      <c r="B330" s="5" t="s">
+      <c r="B330" t="s">
         <v>568</v>
       </c>
       <c r="C330">
@@ -7047,7 +7043,7 @@
       <c r="A331" t="s">
         <v>266</v>
       </c>
-      <c r="B331" s="5" t="s">
+      <c r="B331" t="s">
         <v>569</v>
       </c>
       <c r="C331">
@@ -7058,7 +7054,7 @@
       <c r="A332" t="s">
         <v>570</v>
       </c>
-      <c r="B332" s="5" t="s">
+      <c r="B332" t="s">
         <v>571</v>
       </c>
       <c r="C332">
@@ -7069,7 +7065,7 @@
       <c r="A333" t="s">
         <v>202</v>
       </c>
-      <c r="B333" s="5" t="s">
+      <c r="B333" t="s">
         <v>572</v>
       </c>
       <c r="C333">
@@ -7080,7 +7076,7 @@
       <c r="A334" t="s">
         <v>403</v>
       </c>
-      <c r="B334" s="5" t="s">
+      <c r="B334" t="s">
         <v>573</v>
       </c>
       <c r="C334">
@@ -7091,7 +7087,7 @@
       <c r="A335" t="s">
         <v>574</v>
       </c>
-      <c r="B335" s="5" t="s">
+      <c r="B335" t="s">
         <v>575</v>
       </c>
       <c r="C335">
@@ -7102,7 +7098,7 @@
       <c r="A336" t="s">
         <v>576</v>
       </c>
-      <c r="B336" s="5" t="s">
+      <c r="B336" t="s">
         <v>577</v>
       </c>
       <c r="C336">
@@ -7113,7 +7109,7 @@
       <c r="A337" t="s">
         <v>578</v>
       </c>
-      <c r="B337" s="5" t="s">
+      <c r="B337" t="s">
         <v>579</v>
       </c>
       <c r="C337">
@@ -7124,7 +7120,7 @@
       <c r="A338" t="s">
         <v>580</v>
       </c>
-      <c r="B338" s="5" t="s">
+      <c r="B338" t="s">
         <v>581</v>
       </c>
       <c r="C338">
@@ -7135,7 +7131,7 @@
       <c r="A339" t="s">
         <v>476</v>
       </c>
-      <c r="B339" s="5" t="s">
+      <c r="B339" t="s">
         <v>582</v>
       </c>
       <c r="C339">
@@ -7146,7 +7142,7 @@
       <c r="A340" t="s">
         <v>583</v>
       </c>
-      <c r="B340" s="5" t="s">
+      <c r="B340" t="s">
         <v>584</v>
       </c>
       <c r="C340">
@@ -7157,7 +7153,7 @@
       <c r="A341" t="s">
         <v>585</v>
       </c>
-      <c r="B341" s="5" t="s">
+      <c r="B341" t="s">
         <v>586</v>
       </c>
       <c r="C341">
@@ -7168,7 +7164,7 @@
       <c r="A342" t="s">
         <v>587</v>
       </c>
-      <c r="B342" s="5" t="s">
+      <c r="B342" t="s">
         <v>588</v>
       </c>
       <c r="C342">
@@ -7179,7 +7175,7 @@
       <c r="A343" t="s">
         <v>589</v>
       </c>
-      <c r="B343" s="5" t="s">
+      <c r="B343" t="s">
         <v>590</v>
       </c>
       <c r="C343">
@@ -7190,7 +7186,7 @@
       <c r="A344" t="s">
         <v>591</v>
       </c>
-      <c r="B344" s="5" t="s">
+      <c r="B344" t="s">
         <v>592</v>
       </c>
       <c r="C344">
@@ -7201,7 +7197,7 @@
       <c r="A345" t="s">
         <v>593</v>
       </c>
-      <c r="B345" s="5" t="s">
+      <c r="B345" t="s">
         <v>594</v>
       </c>
       <c r="C345">
@@ -7212,7 +7208,7 @@
       <c r="A346" t="s">
         <v>595</v>
       </c>
-      <c r="B346" s="5" t="s">
+      <c r="B346" t="s">
         <v>596</v>
       </c>
       <c r="C346">
@@ -7223,7 +7219,7 @@
       <c r="A347" t="s">
         <v>597</v>
       </c>
-      <c r="B347" s="5" t="s">
+      <c r="B347" t="s">
         <v>598</v>
       </c>
       <c r="C347">
@@ -7234,7 +7230,7 @@
       <c r="A348" t="s">
         <v>599</v>
       </c>
-      <c r="B348" s="5" t="s">
+      <c r="B348" t="s">
         <v>600</v>
       </c>
       <c r="C348">
@@ -7245,7 +7241,7 @@
       <c r="A349" t="s">
         <v>601</v>
       </c>
-      <c r="B349" s="5" t="s">
+      <c r="B349" t="s">
         <v>602</v>
       </c>
       <c r="C349">
@@ -7256,7 +7252,7 @@
       <c r="A350" t="s">
         <v>462</v>
       </c>
-      <c r="B350" s="5" t="s">
+      <c r="B350" t="s">
         <v>603</v>
       </c>
       <c r="C350">
@@ -7267,7 +7263,7 @@
       <c r="A351" t="s">
         <v>469</v>
       </c>
-      <c r="B351" s="5" t="s">
+      <c r="B351" t="s">
         <v>604</v>
       </c>
       <c r="C351">
@@ -7278,7 +7274,7 @@
       <c r="A352" t="s">
         <v>491</v>
       </c>
-      <c r="B352" s="5" t="s">
+      <c r="B352" t="s">
         <v>605</v>
       </c>
       <c r="C352">
@@ -7289,7 +7285,7 @@
       <c r="A353" t="s">
         <v>282</v>
       </c>
-      <c r="B353" s="5" t="s">
+      <c r="B353" t="s">
         <v>508</v>
       </c>
       <c r="C353">
@@ -7300,7 +7296,7 @@
       <c r="A354" t="s">
         <v>110</v>
       </c>
-      <c r="B354" s="5" t="s">
+      <c r="B354" t="s">
         <v>509</v>
       </c>
       <c r="C354">
@@ -7311,7 +7307,7 @@
       <c r="A355" t="s">
         <v>510</v>
       </c>
-      <c r="B355" s="5" t="s">
+      <c r="B355" t="s">
         <v>511</v>
       </c>
       <c r="C355">
@@ -7322,7 +7318,7 @@
       <c r="A356" t="s">
         <v>512</v>
       </c>
-      <c r="B356" s="5" t="s">
+      <c r="B356" t="s">
         <v>606</v>
       </c>
       <c r="C356">
@@ -7333,7 +7329,7 @@
       <c r="A357" t="s">
         <v>140</v>
       </c>
-      <c r="B357" s="5" t="s">
+      <c r="B357" t="s">
         <v>607</v>
       </c>
       <c r="C357">
@@ -7344,7 +7340,7 @@
       <c r="A358" t="s">
         <v>608</v>
       </c>
-      <c r="B358" s="5" t="s">
+      <c r="B358" t="s">
         <v>609</v>
       </c>
       <c r="C358">
@@ -7355,7 +7351,7 @@
       <c r="A359" t="s">
         <v>305</v>
       </c>
-      <c r="B359" s="5" t="s">
+      <c r="B359" t="s">
         <v>306</v>
       </c>
       <c r="C359">
@@ -7366,7 +7362,7 @@
       <c r="A360" t="s">
         <v>307</v>
       </c>
-      <c r="B360" s="5" t="s">
+      <c r="B360" t="s">
         <v>308</v>
       </c>
       <c r="C360">
@@ -7377,7 +7373,7 @@
       <c r="A361" t="s">
         <v>309</v>
       </c>
-      <c r="B361" s="5" t="s">
+      <c r="B361" t="s">
         <v>610</v>
       </c>
       <c r="C361">
@@ -7388,7 +7384,7 @@
       <c r="A362" t="s">
         <v>319</v>
       </c>
-      <c r="B362" s="5" t="s">
+      <c r="B362" t="s">
         <v>611</v>
       </c>
       <c r="C362">
@@ -7399,7 +7395,7 @@
       <c r="A363" t="s">
         <v>7</v>
       </c>
-      <c r="B363" s="5" t="s">
+      <c r="B363" t="s">
         <v>8</v>
       </c>
       <c r="C363">
@@ -7410,7 +7406,7 @@
       <c r="A364" t="s">
         <v>416</v>
       </c>
-      <c r="B364" s="5" t="s">
+      <c r="B364" t="s">
         <v>612</v>
       </c>
       <c r="C364">
@@ -7421,7 +7417,7 @@
       <c r="A365" t="s">
         <v>422</v>
       </c>
-      <c r="B365" s="5" t="s">
+      <c r="B365" t="s">
         <v>423</v>
       </c>
       <c r="C365">
@@ -7432,7 +7428,7 @@
       <c r="A366" t="s">
         <v>424</v>
       </c>
-      <c r="B366" s="5" t="s">
+      <c r="B366" t="s">
         <v>613</v>
       </c>
       <c r="C366">
@@ -7443,7 +7439,7 @@
       <c r="A367" t="s">
         <v>86</v>
       </c>
-      <c r="B367" s="5" t="s">
+      <c r="B367" t="s">
         <v>87</v>
       </c>
       <c r="C367">
@@ -7454,7 +7450,7 @@
       <c r="A368" t="s">
         <v>102</v>
       </c>
-      <c r="B368" s="5" t="s">
+      <c r="B368" t="s">
         <v>614</v>
       </c>
       <c r="C368">
@@ -7465,7 +7461,7 @@
       <c r="A369" t="s">
         <v>112</v>
       </c>
-      <c r="B369" s="5" t="s">
+      <c r="B369" t="s">
         <v>25</v>
       </c>
       <c r="C369">
@@ -7476,7 +7472,7 @@
       <c r="A370" t="s">
         <v>119</v>
       </c>
-      <c r="B370" s="5" t="s">
+      <c r="B370" t="s">
         <v>120</v>
       </c>
       <c r="C370">
@@ -7487,7 +7483,7 @@
       <c r="A371" t="s">
         <v>128</v>
       </c>
-      <c r="B371" s="5" t="s">
+      <c r="B371" t="s">
         <v>129</v>
       </c>
       <c r="C371">
@@ -7498,7 +7494,7 @@
       <c r="A372" t="s">
         <v>130</v>
       </c>
-      <c r="B372" s="5" t="s">
+      <c r="B372" t="s">
         <v>131</v>
       </c>
       <c r="C372">
@@ -7509,7 +7505,7 @@
       <c r="A373" t="s">
         <v>145</v>
       </c>
-      <c r="B373" s="5" t="s">
+      <c r="B373" t="s">
         <v>25</v>
       </c>
       <c r="C373">
@@ -7520,7 +7516,7 @@
       <c r="A374" t="s">
         <v>154</v>
       </c>
-      <c r="B374" s="5" t="s">
+      <c r="B374" t="s">
         <v>155</v>
       </c>
       <c r="C374">
@@ -7531,7 +7527,7 @@
       <c r="A375" t="s">
         <v>156</v>
       </c>
-      <c r="B375" s="5" t="s">
+      <c r="B375" t="s">
         <v>157</v>
       </c>
       <c r="C375">
@@ -7542,7 +7538,7 @@
       <c r="A376" t="s">
         <v>163</v>
       </c>
-      <c r="B376" s="5" t="s">
+      <c r="B376" t="s">
         <v>25</v>
       </c>
       <c r="C376">
@@ -7553,7 +7549,7 @@
       <c r="A377" t="s">
         <v>187</v>
       </c>
-      <c r="B377" s="5" t="s">
+      <c r="B377" t="s">
         <v>188</v>
       </c>
       <c r="C377">
@@ -7564,7 +7560,7 @@
       <c r="A378" t="s">
         <v>58</v>
       </c>
-      <c r="B378" s="5" t="s">
+      <c r="B378" t="s">
         <v>201</v>
       </c>
       <c r="C378">
@@ -7575,7 +7571,7 @@
       <c r="A379" t="s">
         <v>207</v>
       </c>
-      <c r="B379" s="5" t="s">
+      <c r="B379" t="s">
         <v>208</v>
       </c>
       <c r="C379">
@@ -7586,7 +7582,7 @@
       <c r="A380" t="s">
         <v>209</v>
       </c>
-      <c r="B380" s="5" t="s">
+      <c r="B380" t="s">
         <v>210</v>
       </c>
       <c r="C380">
@@ -7597,7 +7593,7 @@
       <c r="A381" t="s">
         <v>211</v>
       </c>
-      <c r="B381" s="5" t="s">
+      <c r="B381" t="s">
         <v>212</v>
       </c>
       <c r="C381">
@@ -7608,7 +7604,7 @@
       <c r="A382" t="s">
         <v>1</v>
       </c>
-      <c r="B382" s="5" t="s">
+      <c r="B382" t="s">
         <v>615</v>
       </c>
       <c r="C382">
@@ -7619,7 +7615,7 @@
       <c r="A383" t="s">
         <v>7</v>
       </c>
-      <c r="B383" s="5" t="s">
+      <c r="B383" t="s">
         <v>8</v>
       </c>
       <c r="C383">
@@ -7630,7 +7626,7 @@
       <c r="A384" t="s">
         <v>9</v>
       </c>
-      <c r="B384" s="5" t="s">
+      <c r="B384" t="s">
         <v>25</v>
       </c>
       <c r="C384">
@@ -7641,7 +7637,7 @@
       <c r="A385" t="s">
         <v>30</v>
       </c>
-      <c r="B385" s="5" t="s">
+      <c r="B385" t="s">
         <v>616</v>
       </c>
       <c r="C385">
@@ -7652,7 +7648,7 @@
       <c r="A386" t="s">
         <v>32</v>
       </c>
-      <c r="B386" s="5" t="s">
+      <c r="B386" t="s">
         <v>33</v>
       </c>
       <c r="C386">
@@ -7663,7 +7659,7 @@
       <c r="A387" t="s">
         <v>34</v>
       </c>
-      <c r="B387" s="5" t="s">
+      <c r="B387" t="s">
         <v>617</v>
       </c>
       <c r="C387">
@@ -7674,7 +7670,7 @@
       <c r="A388" t="s">
         <v>54</v>
       </c>
-      <c r="B388" s="5" t="s">
+      <c r="B388" t="s">
         <v>618</v>
       </c>
       <c r="C388">
@@ -7685,7 +7681,7 @@
       <c r="A389" t="s">
         <v>66</v>
       </c>
-      <c r="B389" s="5" t="s">
+      <c r="B389" t="s">
         <v>67</v>
       </c>
       <c r="C389">
@@ -7696,7 +7692,7 @@
       <c r="A390" t="s">
         <v>49</v>
       </c>
-      <c r="B390" s="5" t="s">
+      <c r="B390" t="s">
         <v>70</v>
       </c>
       <c r="C390">
@@ -7707,7 +7703,7 @@
       <c r="A391" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B391" s="6" t="s">
+      <c r="B391" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C391" s="2">
@@ -7718,7 +7714,7 @@
       <c r="A392" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B392" s="6" t="s">
+      <c r="B392" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C392" s="2">
@@ -7729,7 +7725,7 @@
       <c r="A393" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B393" s="6" t="s">
+      <c r="B393" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C393" s="2">
@@ -7740,7 +7736,7 @@
       <c r="A394" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B394" s="6" t="s">
+      <c r="B394" s="2" t="s">
         <v>619</v>
       </c>
       <c r="C394" s="2">
@@ -7751,7 +7747,7 @@
       <c r="A395" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B395" s="6" t="s">
+      <c r="B395" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C395" s="2">
@@ -7762,7 +7758,7 @@
       <c r="A396" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B396" s="6" t="s">
+      <c r="B396" s="2" t="s">
         <v>620</v>
       </c>
       <c r="C396" s="2">
@@ -7773,7 +7769,7 @@
       <c r="A397" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B397" s="6" t="s">
+      <c r="B397" s="2" t="s">
         <v>621</v>
       </c>
       <c r="C397" s="2">
@@ -7784,7 +7780,7 @@
       <c r="A398" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B398" s="6" t="s">
+      <c r="B398" s="2" t="s">
         <v>622</v>
       </c>
       <c r="C398" s="2">
@@ -7795,7 +7791,7 @@
       <c r="A399" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B399" s="6" t="s">
+      <c r="B399" s="2" t="s">
         <v>623</v>
       </c>
       <c r="C399" s="2">
@@ -7806,7 +7802,7 @@
       <c r="A400" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B400" s="6" t="s">
+      <c r="B400" s="2" t="s">
         <v>624</v>
       </c>
       <c r="C400" s="2">
@@ -7817,7 +7813,7 @@
       <c r="A401" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B401" s="6" t="s">
+      <c r="B401" s="2" t="s">
         <v>625</v>
       </c>
       <c r="C401" s="2">
@@ -7828,7 +7824,7 @@
       <c r="A402" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B402" s="6" t="s">
+      <c r="B402" s="2" t="s">
         <v>626</v>
       </c>
       <c r="C402" s="2">
@@ -7839,7 +7835,7 @@
       <c r="A403" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B403" s="6" t="s">
+      <c r="B403" s="2" t="s">
         <v>627</v>
       </c>
       <c r="C403" s="2">
@@ -7850,7 +7846,7 @@
       <c r="A404" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B404" s="6" t="s">
+      <c r="B404" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C404" s="2">
@@ -7861,7 +7857,7 @@
       <c r="A405" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B405" s="6" t="s">
+      <c r="B405" s="2" t="s">
         <v>628</v>
       </c>
       <c r="C405" s="2">
@@ -7872,7 +7868,7 @@
       <c r="A406" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B406" s="6" t="s">
+      <c r="B406" s="2" t="s">
         <v>133</v>
       </c>
       <c r="C406" s="2">
@@ -7883,7 +7879,7 @@
       <c r="A407" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B407" s="6" t="s">
+      <c r="B407" s="2" t="s">
         <v>135</v>
       </c>
       <c r="C407" s="2">
@@ -7894,7 +7890,7 @@
       <c r="A408" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B408" s="6" t="s">
+      <c r="B408" s="2" t="s">
         <v>137</v>
       </c>
       <c r="C408" s="2">
@@ -7905,7 +7901,7 @@
       <c r="A409" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B409" s="6" t="s">
+      <c r="B409" s="2" t="s">
         <v>166</v>
       </c>
       <c r="C409" s="2">
@@ -7916,7 +7912,7 @@
       <c r="A410" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B410" s="6" t="s">
+      <c r="B410" s="2" t="s">
         <v>168</v>
       </c>
       <c r="C410" s="2">
@@ -7927,7 +7923,7 @@
       <c r="A411" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B411" s="6" t="s">
+      <c r="B411" s="2" t="s">
         <v>170</v>
       </c>
       <c r="C411" s="2">
@@ -7938,7 +7934,7 @@
       <c r="A412" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B412" s="6" t="s">
+      <c r="B412" s="2" t="s">
         <v>181</v>
       </c>
       <c r="C412" s="2">
@@ -7949,7 +7945,7 @@
       <c r="A413" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B413" s="6" t="s">
+      <c r="B413" s="2" t="s">
         <v>183</v>
       </c>
       <c r="C413" s="2">
@@ -7960,7 +7956,7 @@
       <c r="A414" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B414" s="6" t="s">
+      <c r="B414" s="2" t="s">
         <v>219</v>
       </c>
       <c r="C414" s="2">
@@ -7971,7 +7967,7 @@
       <c r="A415" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B415" s="6" t="s">
+      <c r="B415" s="2" t="s">
         <v>221</v>
       </c>
       <c r="C415" s="2">
@@ -7982,7 +7978,7 @@
       <c r="A416" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B416" s="6" t="s">
+      <c r="B416" s="2" t="s">
         <v>223</v>
       </c>
       <c r="C416" s="2">
@@ -7993,7 +7989,7 @@
       <c r="A417" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B417" s="6" t="s">
+      <c r="B417" s="2" t="s">
         <v>629</v>
       </c>
       <c r="C417" s="2">
@@ -8004,7 +8000,7 @@
       <c r="A418" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="B418" s="6" t="s">
+      <c r="B418" s="2" t="s">
         <v>630</v>
       </c>
       <c r="C418" s="2">
@@ -8015,7 +8011,7 @@
       <c r="A419" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B419" s="6" t="s">
+      <c r="B419" s="2" t="s">
         <v>631</v>
       </c>
       <c r="C419" s="2">
@@ -8026,7 +8022,7 @@
       <c r="A420" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B420" s="6" t="s">
+      <c r="B420" s="2" t="s">
         <v>632</v>
       </c>
       <c r="C420" s="2">
@@ -8037,7 +8033,7 @@
       <c r="A421" s="3" t="s">
         <v>633</v>
       </c>
-      <c r="B421" s="7" t="s">
+      <c r="B421" s="3" t="s">
         <v>634</v>
       </c>
       <c r="C421" s="3">
@@ -8048,7 +8044,7 @@
       <c r="A422" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="B422" s="7" t="s">
+      <c r="B422" s="3" t="s">
         <v>636</v>
       </c>
       <c r="C422" s="3">
@@ -8059,7 +8055,7 @@
       <c r="A423" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="B423" s="7" t="s">
+      <c r="B423" s="3" t="s">
         <v>638</v>
       </c>
       <c r="C423" s="3">
@@ -8070,7 +8066,7 @@
       <c r="A424" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="B424" s="7" t="s">
+      <c r="B424" s="3" t="s">
         <v>640</v>
       </c>
       <c r="C424" s="3">
@@ -8081,7 +8077,7 @@
       <c r="A425" s="3" t="s">
         <v>641</v>
       </c>
-      <c r="B425" s="7" t="s">
+      <c r="B425" s="3" t="s">
         <v>642</v>
       </c>
       <c r="C425" s="3">
@@ -8092,7 +8088,7 @@
       <c r="A426" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="B426" s="7" t="s">
+      <c r="B426" s="3" t="s">
         <v>644</v>
       </c>
       <c r="C426" s="3">
@@ -8103,7 +8099,7 @@
       <c r="A427" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="B427" s="7" t="s">
+      <c r="B427" s="3" t="s">
         <v>645</v>
       </c>
       <c r="C427" s="3">
@@ -8114,7 +8110,7 @@
       <c r="A428" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="B428" s="7" t="s">
+      <c r="B428" s="3" t="s">
         <v>647</v>
       </c>
       <c r="C428" s="3">
@@ -8125,7 +8121,7 @@
       <c r="A429" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="B429" s="7" t="s">
+      <c r="B429" s="3" t="s">
         <v>649</v>
       </c>
       <c r="C429" s="3">
@@ -8136,7 +8132,7 @@
       <c r="A430" s="3" t="s">
         <v>650</v>
       </c>
-      <c r="B430" s="7" t="s">
+      <c r="B430" s="3" t="s">
         <v>651</v>
       </c>
       <c r="C430" s="3">
@@ -8147,7 +8143,7 @@
       <c r="A431" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="B431" s="7" t="s">
+      <c r="B431" s="3" t="s">
         <v>653</v>
       </c>
       <c r="C431" s="3">
@@ -8158,7 +8154,7 @@
       <c r="A432" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="B432" s="7" t="s">
+      <c r="B432" s="3" t="s">
         <v>655</v>
       </c>
       <c r="C432" s="3">
@@ -8169,7 +8165,7 @@
       <c r="A433" s="3" t="s">
         <v>656</v>
       </c>
-      <c r="B433" s="7" t="s">
+      <c r="B433" s="3" t="s">
         <v>657</v>
       </c>
       <c r="C433" s="3">
@@ -8180,7 +8176,7 @@
       <c r="A434" s="3" t="s">
         <v>658</v>
       </c>
-      <c r="B434" s="7" t="s">
+      <c r="B434" s="3" t="s">
         <v>659</v>
       </c>
       <c r="C434" s="3">
@@ -8191,7 +8187,7 @@
       <c r="A435" s="3" t="s">
         <v>660</v>
       </c>
-      <c r="B435" s="7" t="s">
+      <c r="B435" s="3" t="s">
         <v>661</v>
       </c>
       <c r="C435" s="3">
@@ -8202,7 +8198,7 @@
       <c r="A436" s="3" t="s">
         <v>662</v>
       </c>
-      <c r="B436" s="7" t="s">
+      <c r="B436" s="3" t="s">
         <v>663</v>
       </c>
       <c r="C436" s="3">
@@ -8213,7 +8209,7 @@
       <c r="A437" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="B437" s="7" t="s">
+      <c r="B437" s="3" t="s">
         <v>665</v>
       </c>
       <c r="C437" s="3">
@@ -8224,7 +8220,7 @@
       <c r="A438" s="3" t="s">
         <v>666</v>
       </c>
-      <c r="B438" s="7" t="s">
+      <c r="B438" s="3" t="s">
         <v>667</v>
       </c>
       <c r="C438" s="3">
@@ -8235,7 +8231,7 @@
       <c r="A439" s="3" t="s">
         <v>668</v>
       </c>
-      <c r="B439" s="7" t="s">
+      <c r="B439" s="3" t="s">
         <v>669</v>
       </c>
       <c r="C439" s="3">
@@ -8246,7 +8242,7 @@
       <c r="A440" s="3" t="s">
         <v>670</v>
       </c>
-      <c r="B440" s="7" t="s">
+      <c r="B440" s="3" t="s">
         <v>671</v>
       </c>
       <c r="C440" s="3">
@@ -8257,7 +8253,7 @@
       <c r="A441" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="B441" s="7" t="s">
+      <c r="B441" s="3" t="s">
         <v>673</v>
       </c>
       <c r="C441" s="3">
@@ -8268,7 +8264,7 @@
       <c r="A442" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="B442" s="7" t="s">
+      <c r="B442" s="3" t="s">
         <v>675</v>
       </c>
       <c r="C442" s="3">
@@ -8279,7 +8275,7 @@
       <c r="A443" s="3" t="s">
         <v>676</v>
       </c>
-      <c r="B443" s="7" t="s">
+      <c r="B443" s="3" t="s">
         <v>677</v>
       </c>
       <c r="C443" s="3">
@@ -8290,7 +8286,7 @@
       <c r="A444" s="3" t="s">
         <v>678</v>
       </c>
-      <c r="B444" s="7" t="s">
+      <c r="B444" s="3" t="s">
         <v>679</v>
       </c>
       <c r="C444" s="3">
@@ -8301,7 +8297,7 @@
       <c r="A445" s="3" t="s">
         <v>680</v>
       </c>
-      <c r="B445" s="7" t="s">
+      <c r="B445" s="3" t="s">
         <v>681</v>
       </c>
       <c r="C445" s="3">
@@ -8312,7 +8308,7 @@
       <c r="A446" s="3" t="s">
         <v>682</v>
       </c>
-      <c r="B446" s="7" t="s">
+      <c r="B446" s="3" t="s">
         <v>683</v>
       </c>
       <c r="C446" s="3">
@@ -8323,7 +8319,7 @@
       <c r="A447" s="3" t="s">
         <v>684</v>
       </c>
-      <c r="B447" s="7" t="s">
+      <c r="B447" s="3" t="s">
         <v>685</v>
       </c>
       <c r="C447" s="3">
@@ -8334,7 +8330,7 @@
       <c r="A448" s="3" t="s">
         <v>686</v>
       </c>
-      <c r="B448" s="7" t="s">
+      <c r="B448" s="3" t="s">
         <v>687</v>
       </c>
       <c r="C448" s="3">
@@ -8345,7 +8341,7 @@
       <c r="A449" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="B449" s="7" t="s">
+      <c r="B449" s="3" t="s">
         <v>688</v>
       </c>
       <c r="C449" s="3">
@@ -8356,7 +8352,7 @@
       <c r="A450" s="3" t="s">
         <v>689</v>
       </c>
-      <c r="B450" s="7" t="s">
+      <c r="B450" s="3" t="s">
         <v>690</v>
       </c>
       <c r="C450" s="3">
@@ -8367,7 +8363,7 @@
       <c r="A451" s="3" t="s">
         <v>691</v>
       </c>
-      <c r="B451" s="7" t="s">
+      <c r="B451" s="3" t="s">
         <v>692</v>
       </c>
       <c r="C451" s="3">
@@ -8378,7 +8374,7 @@
       <c r="A452" s="3" t="s">
         <v>693</v>
       </c>
-      <c r="B452" s="7" t="s">
+      <c r="B452" s="3" t="s">
         <v>694</v>
       </c>
       <c r="C452" s="3">
@@ -8389,7 +8385,7 @@
       <c r="A453" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="B453" s="7" t="s">
+      <c r="B453" s="3" t="s">
         <v>696</v>
       </c>
       <c r="C453" s="3">
@@ -8400,7 +8396,7 @@
       <c r="A454" s="3" t="s">
         <v>697</v>
       </c>
-      <c r="B454" s="7" t="s">
+      <c r="B454" s="3" t="s">
         <v>698</v>
       </c>
       <c r="C454" s="3">
@@ -8411,7 +8407,7 @@
       <c r="A455" s="3" t="s">
         <v>699</v>
       </c>
-      <c r="B455" s="7" t="s">
+      <c r="B455" s="3" t="s">
         <v>700</v>
       </c>
       <c r="C455" s="3">
@@ -8422,7 +8418,7 @@
       <c r="A456" s="3" t="s">
         <v>701</v>
       </c>
-      <c r="B456" s="7" t="s">
+      <c r="B456" s="3" t="s">
         <v>702</v>
       </c>
       <c r="C456" s="3">
@@ -8433,7 +8429,7 @@
       <c r="A457" s="3" t="s">
         <v>703</v>
       </c>
-      <c r="B457" s="7" t="s">
+      <c r="B457" s="3" t="s">
         <v>704</v>
       </c>
       <c r="C457" s="3">
@@ -8444,7 +8440,7 @@
       <c r="A458" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="B458" s="7" t="s">
+      <c r="B458" s="3" t="s">
         <v>705</v>
       </c>
       <c r="C458" s="3">
@@ -8455,7 +8451,7 @@
       <c r="A459" s="3" t="s">
         <v>706</v>
       </c>
-      <c r="B459" s="7" t="s">
+      <c r="B459" s="3" t="s">
         <v>707</v>
       </c>
       <c r="C459" s="3">
@@ -8466,7 +8462,7 @@
       <c r="A460" s="3" t="s">
         <v>708</v>
       </c>
-      <c r="B460" s="7" t="s">
+      <c r="B460" s="3" t="s">
         <v>709</v>
       </c>
       <c r="C460" s="3">
@@ -8477,7 +8473,7 @@
       <c r="A461" s="3" t="s">
         <v>710</v>
       </c>
-      <c r="B461" s="7" t="s">
+      <c r="B461" s="3" t="s">
         <v>711</v>
       </c>
       <c r="C461" s="3">
@@ -8488,7 +8484,7 @@
       <c r="A462" s="3" t="s">
         <v>712</v>
       </c>
-      <c r="B462" s="7" t="s">
+      <c r="B462" s="3" t="s">
         <v>713</v>
       </c>
       <c r="C462" s="3">
@@ -8499,7 +8495,7 @@
       <c r="A463" s="3" t="s">
         <v>714</v>
       </c>
-      <c r="B463" s="7" t="s">
+      <c r="B463" s="3" t="s">
         <v>715</v>
       </c>
       <c r="C463" s="3">
@@ -8510,7 +8506,7 @@
       <c r="A464" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="B464" s="7" t="s">
+      <c r="B464" s="3" t="s">
         <v>716</v>
       </c>
       <c r="C464" s="3">
@@ -8521,7 +8517,7 @@
       <c r="A465" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="B465" s="7" t="s">
+      <c r="B465" s="3" t="s">
         <v>717</v>
       </c>
       <c r="C465" s="3">
@@ -8532,7 +8528,7 @@
       <c r="A466" s="3" t="s">
         <v>718</v>
       </c>
-      <c r="B466" s="7" t="s">
+      <c r="B466" s="3" t="s">
         <v>719</v>
       </c>
       <c r="C466" s="3">
@@ -8543,7 +8539,7 @@
       <c r="A467" s="3" t="s">
         <v>720</v>
       </c>
-      <c r="B467" s="7" t="s">
+      <c r="B467" s="3" t="s">
         <v>721</v>
       </c>
       <c r="C467" s="3">
@@ -8554,7 +8550,7 @@
       <c r="A468" s="3" t="s">
         <v>682</v>
       </c>
-      <c r="B468" s="7" t="s">
+      <c r="B468" s="3" t="s">
         <v>722</v>
       </c>
       <c r="C468" s="3">
@@ -8565,7 +8561,7 @@
       <c r="A469" s="3" t="s">
         <v>723</v>
       </c>
-      <c r="B469" s="7" t="s">
+      <c r="B469" s="3" t="s">
         <v>724</v>
       </c>
       <c r="C469" s="3">
@@ -8576,7 +8572,7 @@
       <c r="A470" s="3" t="s">
         <v>725</v>
       </c>
-      <c r="B470" s="7" t="s">
+      <c r="B470" s="3" t="s">
         <v>726</v>
       </c>
       <c r="C470" s="3">
@@ -8587,7 +8583,7 @@
       <c r="A471" s="3" t="s">
         <v>727</v>
       </c>
-      <c r="B471" s="7" t="s">
+      <c r="B471" s="3" t="s">
         <v>728</v>
       </c>
       <c r="C471" s="3">
@@ -8598,7 +8594,7 @@
       <c r="A472" s="3" t="s">
         <v>729</v>
       </c>
-      <c r="B472" s="7" t="s">
+      <c r="B472" s="3" t="s">
         <v>730</v>
       </c>
       <c r="C472" s="3">
@@ -8609,7 +8605,7 @@
       <c r="A473" s="3" t="s">
         <v>731</v>
       </c>
-      <c r="B473" s="7" t="s">
+      <c r="B473" s="3" t="s">
         <v>732</v>
       </c>
       <c r="C473" s="3">
@@ -8620,7 +8616,7 @@
       <c r="A474" s="3" t="s">
         <v>733</v>
       </c>
-      <c r="B474" s="7" t="s">
+      <c r="B474" s="3" t="s">
         <v>734</v>
       </c>
       <c r="C474" s="3">
@@ -8631,7 +8627,7 @@
       <c r="A475" s="3" t="s">
         <v>735</v>
       </c>
-      <c r="B475" s="7" t="s">
+      <c r="B475" s="3" t="s">
         <v>736</v>
       </c>
       <c r="C475" s="3">
@@ -8642,7 +8638,7 @@
       <c r="A476" s="3" t="s">
         <v>737</v>
       </c>
-      <c r="B476" s="7" t="s">
+      <c r="B476" s="3" t="s">
         <v>738</v>
       </c>
       <c r="C476" s="3">
@@ -8653,7 +8649,7 @@
       <c r="A477" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B477" s="7" t="s">
+      <c r="B477" s="3" t="s">
         <v>739</v>
       </c>
       <c r="C477" s="3">
@@ -8664,7 +8660,7 @@
       <c r="A478" s="3" t="s">
         <v>660</v>
       </c>
-      <c r="B478" s="7" t="s">
+      <c r="B478" s="3" t="s">
         <v>740</v>
       </c>
       <c r="C478" s="3">
@@ -8675,7 +8671,7 @@
       <c r="A479" s="3" t="s">
         <v>741</v>
       </c>
-      <c r="B479" s="7" t="s">
+      <c r="B479" s="3" t="s">
         <v>742</v>
       </c>
       <c r="C479" s="3">
@@ -8686,7 +8682,7 @@
       <c r="A480" s="3" t="s">
         <v>743</v>
       </c>
-      <c r="B480" s="7" t="s">
+      <c r="B480" s="3" t="s">
         <v>744</v>
       </c>
       <c r="C480" s="3">
@@ -8697,7 +8693,7 @@
       <c r="A481" s="3" t="s">
         <v>745</v>
       </c>
-      <c r="B481" s="7" t="s">
+      <c r="B481" s="3" t="s">
         <v>746</v>
       </c>
       <c r="C481" s="3">
@@ -8708,7 +8704,7 @@
       <c r="A482" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="B482" s="7" t="s">
+      <c r="B482" s="3" t="s">
         <v>748</v>
       </c>
       <c r="C482" s="3">
@@ -8719,7 +8715,7 @@
       <c r="A483" s="3" t="s">
         <v>749</v>
       </c>
-      <c r="B483" s="7" t="s">
+      <c r="B483" s="3" t="s">
         <v>750</v>
       </c>
       <c r="C483" s="3">
@@ -8730,7 +8726,7 @@
       <c r="A484" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="B484" s="7" t="s">
+      <c r="B484" s="3" t="s">
         <v>752</v>
       </c>
       <c r="C484" s="3">
@@ -8741,7 +8737,7 @@
       <c r="A485" s="3" t="s">
         <v>753</v>
       </c>
-      <c r="B485" s="7" t="s">
+      <c r="B485" s="3" t="s">
         <v>754</v>
       </c>
       <c r="C485" s="3">
@@ -8752,7 +8748,7 @@
       <c r="A486" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="B486" s="7" t="s">
+      <c r="B486" s="3" t="s">
         <v>756</v>
       </c>
       <c r="C486" s="3">
@@ -8763,7 +8759,7 @@
       <c r="A487" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B487" s="7" t="s">
+      <c r="B487" s="3" t="s">
         <v>757</v>
       </c>
       <c r="C487" s="3">
@@ -8774,7 +8770,7 @@
       <c r="A488" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B488" s="7" t="s">
+      <c r="B488" s="3" t="s">
         <v>758</v>
       </c>
       <c r="C488" s="3">
@@ -8785,7 +8781,7 @@
       <c r="A489" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="B489" s="7" t="s">
+      <c r="B489" s="3" t="s">
         <v>760</v>
       </c>
       <c r="C489" s="3">
@@ -8796,7 +8792,7 @@
       <c r="A490" s="3" t="s">
         <v>761</v>
       </c>
-      <c r="B490" s="7" t="s">
+      <c r="B490" s="3" t="s">
         <v>762</v>
       </c>
       <c r="C490" s="3">
@@ -8807,7 +8803,7 @@
       <c r="A491" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B491" s="7" t="s">
+      <c r="B491" s="3" t="s">
         <v>763</v>
       </c>
       <c r="C491" s="3">
@@ -8818,7 +8814,7 @@
       <c r="A492" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="B492" s="7" t="s">
+      <c r="B492" s="3" t="s">
         <v>765</v>
       </c>
       <c r="C492" s="3">
@@ -8829,7 +8825,7 @@
       <c r="A493" s="3" t="s">
         <v>658</v>
       </c>
-      <c r="B493" s="7" t="s">
+      <c r="B493" s="3" t="s">
         <v>766</v>
       </c>
       <c r="C493" s="3">
@@ -8840,7 +8836,7 @@
       <c r="A494" s="3" t="s">
         <v>767</v>
       </c>
-      <c r="B494" s="7" t="s">
+      <c r="B494" s="3" t="s">
         <v>768</v>
       </c>
       <c r="C494" s="3">
@@ -8851,7 +8847,7 @@
       <c r="A495" s="3" t="s">
         <v>769</v>
       </c>
-      <c r="B495" s="7" t="s">
+      <c r="B495" s="3" t="s">
         <v>770</v>
       </c>
       <c r="C495" s="3">
@@ -8862,7 +8858,7 @@
       <c r="A496" s="3" t="s">
         <v>771</v>
       </c>
-      <c r="B496" s="7" t="s">
+      <c r="B496" s="3" t="s">
         <v>772</v>
       </c>
       <c r="C496" s="3">
@@ -8873,7 +8869,7 @@
       <c r="A497" s="3" t="s">
         <v>773</v>
       </c>
-      <c r="B497" s="7" t="s">
+      <c r="B497" s="3" t="s">
         <v>774</v>
       </c>
       <c r="C497" s="3">
@@ -8884,7 +8880,7 @@
       <c r="A498" s="3" t="s">
         <v>775</v>
       </c>
-      <c r="B498" s="7" t="s">
+      <c r="B498" s="3" t="s">
         <v>776</v>
       </c>
       <c r="C498" s="3">
@@ -8895,7 +8891,7 @@
       <c r="A499" s="3" t="s">
         <v>777</v>
       </c>
-      <c r="B499" s="7" t="s">
+      <c r="B499" s="3" t="s">
         <v>778</v>
       </c>
       <c r="C499" s="3">
@@ -8906,7 +8902,7 @@
       <c r="A500" s="3" t="s">
         <v>779</v>
       </c>
-      <c r="B500" s="7" t="s">
+      <c r="B500" s="3" t="s">
         <v>780</v>
       </c>
       <c r="C500" s="3">
@@ -8917,7 +8913,7 @@
       <c r="A501" s="3" t="s">
         <v>781</v>
       </c>
-      <c r="B501" s="7" t="s">
+      <c r="B501" s="3" t="s">
         <v>782</v>
       </c>
       <c r="C501" s="3">
@@ -8928,7 +8924,7 @@
       <c r="A502" s="3" t="s">
         <v>783</v>
       </c>
-      <c r="B502" s="7" t="s">
+      <c r="B502" s="3" t="s">
         <v>784</v>
       </c>
       <c r="C502" s="3">
@@ -8939,7 +8935,7 @@
       <c r="A503" s="3" t="s">
         <v>785</v>
       </c>
-      <c r="B503" s="7" t="s">
+      <c r="B503" s="3" t="s">
         <v>786</v>
       </c>
       <c r="C503" s="3">
@@ -8950,7 +8946,7 @@
       <c r="A504" s="3" t="s">
         <v>787</v>
       </c>
-      <c r="B504" s="7" t="s">
+      <c r="B504" s="3" t="s">
         <v>788</v>
       </c>
       <c r="C504" s="3">
@@ -8961,7 +8957,7 @@
       <c r="A505" s="3" t="s">
         <v>789</v>
       </c>
-      <c r="B505" s="7" t="s">
+      <c r="B505" s="3" t="s">
         <v>790</v>
       </c>
       <c r="C505" s="3">
@@ -8972,7 +8968,7 @@
       <c r="A506" s="3" t="s">
         <v>791</v>
       </c>
-      <c r="B506" s="7" t="s">
+      <c r="B506" s="3" t="s">
         <v>792</v>
       </c>
       <c r="C506" s="3">
@@ -8983,7 +8979,7 @@
       <c r="A507" s="3" t="s">
         <v>793</v>
       </c>
-      <c r="B507" s="7" t="s">
+      <c r="B507" s="3" t="s">
         <v>794</v>
       </c>
       <c r="C507" s="3">
@@ -8994,7 +8990,7 @@
       <c r="A508" s="3" t="s">
         <v>795</v>
       </c>
-      <c r="B508" s="7" t="s">
+      <c r="B508" s="3" t="s">
         <v>796</v>
       </c>
       <c r="C508" s="3">
@@ -9005,7 +9001,7 @@
       <c r="A509" s="3" t="s">
         <v>797</v>
       </c>
-      <c r="B509" s="7" t="s">
+      <c r="B509" s="3" t="s">
         <v>798</v>
       </c>
       <c r="C509" s="3">
@@ -9016,7 +9012,7 @@
       <c r="A510" s="3" t="s">
         <v>799</v>
       </c>
-      <c r="B510" s="7" t="s">
+      <c r="B510" s="3" t="s">
         <v>800</v>
       </c>
       <c r="C510" s="3">
@@ -9027,7 +9023,7 @@
       <c r="A511" s="3" t="s">
         <v>801</v>
       </c>
-      <c r="B511" s="7" t="s">
+      <c r="B511" s="3" t="s">
         <v>802</v>
       </c>
       <c r="C511" s="3">
@@ -9038,7 +9034,7 @@
       <c r="A512" s="3" t="s">
         <v>803</v>
       </c>
-      <c r="B512" s="7" t="s">
+      <c r="B512" s="3" t="s">
         <v>804</v>
       </c>
       <c r="C512" s="3">
@@ -9049,7 +9045,7 @@
       <c r="A513" s="3" t="s">
         <v>805</v>
       </c>
-      <c r="B513" s="7" t="s">
+      <c r="B513" s="3" t="s">
         <v>806</v>
       </c>
       <c r="C513" s="3">
@@ -9060,7 +9056,7 @@
       <c r="A514" s="3" t="s">
         <v>807</v>
       </c>
-      <c r="B514" s="7" t="s">
+      <c r="B514" s="3" t="s">
         <v>808</v>
       </c>
       <c r="C514" s="3">
@@ -9071,7 +9067,7 @@
       <c r="A515" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B515" s="7" t="s">
+      <c r="B515" s="3" t="s">
         <v>809</v>
       </c>
       <c r="C515" s="3">
@@ -9082,7 +9078,7 @@
       <c r="A516" s="3" t="s">
         <v>810</v>
       </c>
-      <c r="B516" s="7" t="s">
+      <c r="B516" s="3" t="s">
         <v>811</v>
       </c>
       <c r="C516" s="3">
@@ -9093,7 +9089,7 @@
       <c r="A517" s="3" t="s">
         <v>812</v>
       </c>
-      <c r="B517" s="7" t="s">
+      <c r="B517" s="3" t="s">
         <v>813</v>
       </c>
       <c r="C517" s="3">
@@ -9104,7 +9100,7 @@
       <c r="A518" s="3" t="s">
         <v>814</v>
       </c>
-      <c r="B518" s="7" t="s">
+      <c r="B518" s="3" t="s">
         <v>815</v>
       </c>
       <c r="C518" s="3">
@@ -9115,7 +9111,7 @@
       <c r="A519" s="3" t="s">
         <v>816</v>
       </c>
-      <c r="B519" s="7" t="s">
+      <c r="B519" s="3" t="s">
         <v>817</v>
       </c>
       <c r="C519" s="3">
@@ -9126,7 +9122,7 @@
       <c r="A520" s="3" t="s">
         <v>818</v>
       </c>
-      <c r="B520" s="7" t="s">
+      <c r="B520" s="3" t="s">
         <v>819</v>
       </c>
       <c r="C520" s="3">
@@ -9137,7 +9133,7 @@
       <c r="A521" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="B521" s="7" t="s">
+      <c r="B521" s="3" t="s">
         <v>821</v>
       </c>
       <c r="C521" s="3">
@@ -9148,7 +9144,7 @@
       <c r="A522" s="3" t="s">
         <v>822</v>
       </c>
-      <c r="B522" s="7" t="s">
+      <c r="B522" s="3" t="s">
         <v>823</v>
       </c>
       <c r="C522" s="3">
@@ -9159,7 +9155,7 @@
       <c r="A523" s="3" t="s">
         <v>697</v>
       </c>
-      <c r="B523" s="7" t="s">
+      <c r="B523" s="3" t="s">
         <v>824</v>
       </c>
       <c r="C523" s="3">
@@ -9170,7 +9166,7 @@
       <c r="A524" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="B524" s="7" t="s">
+      <c r="B524" s="3" t="s">
         <v>825</v>
       </c>
       <c r="C524" s="3">
@@ -9181,7 +9177,7 @@
       <c r="A525" s="3" t="s">
         <v>826</v>
       </c>
-      <c r="B525" s="7" t="s">
+      <c r="B525" s="3" t="s">
         <v>827</v>
       </c>
       <c r="C525" s="3">
@@ -9192,7 +9188,7 @@
       <c r="A526" s="3" t="s">
         <v>828</v>
       </c>
-      <c r="B526" s="7" t="s">
+      <c r="B526" s="3" t="s">
         <v>829</v>
       </c>
       <c r="C526" s="3">
@@ -9203,7 +9199,7 @@
       <c r="A527" s="3" t="s">
         <v>830</v>
       </c>
-      <c r="B527" s="7" t="s">
+      <c r="B527" s="3" t="s">
         <v>831</v>
       </c>
       <c r="C527" s="3">
@@ -9214,7 +9210,7 @@
       <c r="A528" s="3" t="s">
         <v>832</v>
       </c>
-      <c r="B528" s="7" t="s">
+      <c r="B528" s="3" t="s">
         <v>833</v>
       </c>
       <c r="C528" s="3">
@@ -9225,7 +9221,7 @@
       <c r="A529" s="3" t="s">
         <v>714</v>
       </c>
-      <c r="B529" s="7" t="s">
+      <c r="B529" s="3" t="s">
         <v>834</v>
       </c>
       <c r="C529" s="3">
@@ -9236,7 +9232,7 @@
       <c r="A530" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="B530" s="7" t="s">
+      <c r="B530" s="3" t="s">
         <v>835</v>
       </c>
       <c r="C530" s="3">
@@ -9247,7 +9243,7 @@
       <c r="A531" s="3" t="s">
         <v>836</v>
       </c>
-      <c r="B531" s="7" t="s">
+      <c r="B531" s="3" t="s">
         <v>837</v>
       </c>
       <c r="C531" s="3">
@@ -9258,7 +9254,7 @@
       <c r="A532" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="B532" s="7" t="s">
+      <c r="B532" s="3" t="s">
         <v>838</v>
       </c>
       <c r="C532" s="3">
@@ -9269,7 +9265,7 @@
       <c r="A533" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="B533" s="7" t="s">
+      <c r="B533" s="3" t="s">
         <v>839</v>
       </c>
       <c r="C533" s="3">
@@ -9280,7 +9276,7 @@
       <c r="A534" s="3" t="s">
         <v>840</v>
       </c>
-      <c r="B534" s="7" t="s">
+      <c r="B534" s="3" t="s">
         <v>841</v>
       </c>
       <c r="C534" s="3">
@@ -9291,7 +9287,7 @@
       <c r="A535" s="3" t="s">
         <v>842</v>
       </c>
-      <c r="B535" s="7" t="s">
+      <c r="B535" s="3" t="s">
         <v>843</v>
       </c>
       <c r="C535" s="3">
@@ -9302,7 +9298,7 @@
       <c r="A536" s="3" t="s">
         <v>844</v>
       </c>
-      <c r="B536" s="7" t="s">
+      <c r="B536" s="3" t="s">
         <v>845</v>
       </c>
       <c r="C536" s="3">
@@ -9313,7 +9309,7 @@
       <c r="A537" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B537" s="7" t="s">
+      <c r="B537" s="3" t="s">
         <v>846</v>
       </c>
       <c r="C537" s="3">
@@ -9324,7 +9320,7 @@
       <c r="A538" s="3" t="s">
         <v>847</v>
       </c>
-      <c r="B538" s="7" t="s">
+      <c r="B538" s="3" t="s">
         <v>848</v>
       </c>
       <c r="C538" s="3">
@@ -9335,7 +9331,7 @@
       <c r="A539" s="3" t="s">
         <v>849</v>
       </c>
-      <c r="B539" s="7" t="s">
+      <c r="B539" s="3" t="s">
         <v>850</v>
       </c>
       <c r="C539" s="3">
@@ -9346,7 +9342,7 @@
       <c r="A540" s="3" t="s">
         <v>851</v>
       </c>
-      <c r="B540" s="7" t="s">
+      <c r="B540" s="3" t="s">
         <v>852</v>
       </c>
       <c r="C540" s="3">
@@ -9357,7 +9353,7 @@
       <c r="A541" s="3" t="s">
         <v>853</v>
       </c>
-      <c r="B541" s="7" t="s">
+      <c r="B541" s="3" t="s">
         <v>854</v>
       </c>
       <c r="C541" s="3">
@@ -9368,7 +9364,7 @@
       <c r="A542" s="3" t="s">
         <v>855</v>
       </c>
-      <c r="B542" s="7" t="s">
+      <c r="B542" s="3" t="s">
         <v>856</v>
       </c>
       <c r="C542" s="3">
@@ -9379,7 +9375,7 @@
       <c r="A543" s="3" t="s">
         <v>857</v>
       </c>
-      <c r="B543" s="7" t="s">
+      <c r="B543" s="3" t="s">
         <v>858</v>
       </c>
       <c r="C543" s="3">
@@ -9390,7 +9386,7 @@
       <c r="A544" s="3" t="s">
         <v>859</v>
       </c>
-      <c r="B544" s="7" t="s">
+      <c r="B544" s="3" t="s">
         <v>860</v>
       </c>
       <c r="C544" s="3">
@@ -9401,7 +9397,7 @@
       <c r="A545" s="3" t="s">
         <v>861</v>
       </c>
-      <c r="B545" s="7" t="s">
+      <c r="B545" s="3" t="s">
         <v>862</v>
       </c>
       <c r="C545" s="3">
@@ -9412,7 +9408,7 @@
       <c r="A546" s="3" t="s">
         <v>863</v>
       </c>
-      <c r="B546" s="7" t="s">
+      <c r="B546" s="3" t="s">
         <v>864</v>
       </c>
       <c r="C546" s="3">
@@ -9423,7 +9419,7 @@
       <c r="A547" s="3" t="s">
         <v>865</v>
       </c>
-      <c r="B547" s="7" t="s">
+      <c r="B547" s="3" t="s">
         <v>866</v>
       </c>
       <c r="C547" s="3">
@@ -9434,7 +9430,7 @@
       <c r="A548" s="3" t="s">
         <v>867</v>
       </c>
-      <c r="B548" s="7" t="s">
+      <c r="B548" s="3" t="s">
         <v>868</v>
       </c>
       <c r="C548" s="3">
@@ -9445,7 +9441,7 @@
       <c r="A549" s="3" t="s">
         <v>869</v>
       </c>
-      <c r="B549" s="7" t="s">
+      <c r="B549" s="3" t="s">
         <v>870</v>
       </c>
       <c r="C549" s="3">
@@ -9456,7 +9452,7 @@
       <c r="A550" s="3" t="s">
         <v>710</v>
       </c>
-      <c r="B550" s="7" t="s">
+      <c r="B550" s="3" t="s">
         <v>871</v>
       </c>
       <c r="C550" s="3">
@@ -9467,7 +9463,7 @@
       <c r="A551" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="B551" s="7" t="s">
+      <c r="B551" s="3" t="s">
         <v>872</v>
       </c>
       <c r="C551" s="3">
@@ -9478,7 +9474,7 @@
       <c r="A552" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="B552" s="7" t="s">
+      <c r="B552" s="3" t="s">
         <v>874</v>
       </c>
       <c r="C552" s="3">
@@ -9489,7 +9485,7 @@
       <c r="A553" s="3" t="s">
         <v>875</v>
       </c>
-      <c r="B553" s="7" t="s">
+      <c r="B553" s="3" t="s">
         <v>876</v>
       </c>
       <c r="C553" s="3">
@@ -9500,7 +9496,7 @@
       <c r="A554" s="3" t="s">
         <v>877</v>
       </c>
-      <c r="B554" s="7" t="s">
+      <c r="B554" s="3" t="s">
         <v>878</v>
       </c>
       <c r="C554" s="3">
@@ -9511,7 +9507,7 @@
       <c r="A555" s="3" t="s">
         <v>879</v>
       </c>
-      <c r="B555" s="7" t="s">
+      <c r="B555" s="3" t="s">
         <v>880</v>
       </c>
       <c r="C555" s="3">
@@ -9522,7 +9518,7 @@
       <c r="A556" s="3" t="s">
         <v>881</v>
       </c>
-      <c r="B556" s="7" t="s">
+      <c r="B556" s="3" t="s">
         <v>882</v>
       </c>
       <c r="C556" s="3">
@@ -9533,7 +9529,7 @@
       <c r="A557" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="B557" s="7" t="s">
+      <c r="B557" s="3" t="s">
         <v>883</v>
       </c>
       <c r="C557" s="3">
@@ -9544,7 +9540,7 @@
       <c r="A558" s="3" t="s">
         <v>884</v>
       </c>
-      <c r="B558" s="7" t="s">
+      <c r="B558" s="3" t="s">
         <v>885</v>
       </c>
       <c r="C558" s="3">
@@ -9555,7 +9551,7 @@
       <c r="A559" s="3" t="s">
         <v>886</v>
       </c>
-      <c r="B559" s="7" t="s">
+      <c r="B559" s="3" t="s">
         <v>887</v>
       </c>
       <c r="C559" s="3">
@@ -9566,7 +9562,7 @@
       <c r="A560" s="3" t="s">
         <v>888</v>
       </c>
-      <c r="B560" s="7" t="s">
+      <c r="B560" s="3" t="s">
         <v>889</v>
       </c>
       <c r="C560" s="3">
@@ -9577,7 +9573,7 @@
       <c r="A561" s="3" t="s">
         <v>890</v>
       </c>
-      <c r="B561" s="7" t="s">
+      <c r="B561" s="3" t="s">
         <v>891</v>
       </c>
       <c r="C561" s="3">
@@ -9588,7 +9584,7 @@
       <c r="A562" s="3" t="s">
         <v>892</v>
       </c>
-      <c r="B562" s="7" t="s">
+      <c r="B562" s="3" t="s">
         <v>893</v>
       </c>
       <c r="C562" s="3">
@@ -9599,7 +9595,7 @@
       <c r="A563" s="3" t="s">
         <v>894</v>
       </c>
-      <c r="B563" s="7" t="s">
+      <c r="B563" s="3" t="s">
         <v>895</v>
       </c>
       <c r="C563" s="3">
@@ -9610,7 +9606,7 @@
       <c r="A564" s="3" t="s">
         <v>676</v>
       </c>
-      <c r="B564" s="7" t="s">
+      <c r="B564" s="3" t="s">
         <v>896</v>
       </c>
       <c r="C564" s="3">
@@ -9621,7 +9617,7 @@
       <c r="A565" s="3" t="s">
         <v>897</v>
       </c>
-      <c r="B565" s="7" t="s">
+      <c r="B565" s="3" t="s">
         <v>898</v>
       </c>
       <c r="C565" s="3">
@@ -9632,7 +9628,7 @@
       <c r="A566" s="3" t="s">
         <v>899</v>
       </c>
-      <c r="B566" s="7" t="s">
+      <c r="B566" s="3" t="s">
         <v>900</v>
       </c>
       <c r="C566" s="3">
@@ -9643,7 +9639,7 @@
       <c r="A567" s="3" t="s">
         <v>901</v>
       </c>
-      <c r="B567" s="7" t="s">
+      <c r="B567" s="3" t="s">
         <v>902</v>
       </c>
       <c r="C567" s="3">
@@ -9654,7 +9650,7 @@
       <c r="A568" s="3" t="s">
         <v>769</v>
       </c>
-      <c r="B568" s="7" t="s">
+      <c r="B568" s="3" t="s">
         <v>903</v>
       </c>
       <c r="C568" s="3">
@@ -9665,7 +9661,7 @@
       <c r="A569" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B569" s="7" t="s">
+      <c r="B569" s="3" t="s">
         <v>904</v>
       </c>
       <c r="C569" s="3">
@@ -9676,7 +9672,7 @@
       <c r="A570" s="3" t="s">
         <v>905</v>
       </c>
-      <c r="B570" s="7" t="s">
+      <c r="B570" s="3" t="s">
         <v>906</v>
       </c>
       <c r="C570" s="3">
@@ -9687,7 +9683,7 @@
       <c r="A571" s="3" t="s">
         <v>907</v>
       </c>
-      <c r="B571" s="7" t="s">
+      <c r="B571" s="3" t="s">
         <v>908</v>
       </c>
       <c r="C571" s="3">
@@ -9698,7 +9694,7 @@
       <c r="A572" s="3" t="s">
         <v>909</v>
       </c>
-      <c r="B572" s="7" t="s">
+      <c r="B572" s="3" t="s">
         <v>910</v>
       </c>
       <c r="C572" s="3">
@@ -9709,7 +9705,7 @@
       <c r="A573" s="3" t="s">
         <v>911</v>
       </c>
-      <c r="B573" s="7" t="s">
+      <c r="B573" s="3" t="s">
         <v>912</v>
       </c>
       <c r="C573" s="3">
@@ -9720,7 +9716,7 @@
       <c r="A574" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B574" s="7" t="s">
+      <c r="B574" s="3" t="s">
         <v>913</v>
       </c>
       <c r="C574" s="3">
@@ -9731,7 +9727,7 @@
       <c r="A575" s="3" t="s">
         <v>914</v>
       </c>
-      <c r="B575" s="7" t="s">
+      <c r="B575" s="3" t="s">
         <v>915</v>
       </c>
       <c r="C575" s="3">
@@ -9742,7 +9738,7 @@
       <c r="A576" s="3" t="s">
         <v>805</v>
       </c>
-      <c r="B576" s="7" t="s">
+      <c r="B576" s="3" t="s">
         <v>916</v>
       </c>
       <c r="C576" s="3">
@@ -9753,7 +9749,7 @@
       <c r="A577" s="4" t="s">
         <v>917</v>
       </c>
-      <c r="B577" s="8" t="s">
+      <c r="B577" s="4" t="s">
         <v>918</v>
       </c>
       <c r="C577" s="3">
@@ -9764,7 +9760,7 @@
       <c r="A578" s="3" t="s">
         <v>919</v>
       </c>
-      <c r="B578" s="7" t="s">
+      <c r="B578" s="3" t="s">
         <v>920</v>
       </c>
       <c r="C578" s="3">
@@ -9775,7 +9771,7 @@
       <c r="A579" s="3" t="s">
         <v>921</v>
       </c>
-      <c r="B579" s="7" t="s">
+      <c r="B579" s="3" t="s">
         <v>922</v>
       </c>
       <c r="C579" s="3">
@@ -9786,7 +9782,7 @@
       <c r="A580" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="B580" s="7" t="s">
+      <c r="B580" s="3" t="s">
         <v>923</v>
       </c>
       <c r="C580" s="3">
@@ -9797,7 +9793,7 @@
       <c r="A581" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="B581" s="7" t="s">
+      <c r="B581" s="3" t="s">
         <v>924</v>
       </c>
       <c r="C581" s="3">
@@ -9808,7 +9804,7 @@
       <c r="A582" s="3" t="s">
         <v>925</v>
       </c>
-      <c r="B582" s="7" t="s">
+      <c r="B582" s="3" t="s">
         <v>926</v>
       </c>
       <c r="C582" s="3">
@@ -9819,7 +9815,7 @@
       <c r="A583" s="3" t="s">
         <v>927</v>
       </c>
-      <c r="B583" s="7" t="s">
+      <c r="B583" s="3" t="s">
         <v>928</v>
       </c>
       <c r="C583" s="3">
@@ -9830,7 +9826,7 @@
       <c r="A584" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="B584" s="7" t="s">
+      <c r="B584" s="3" t="s">
         <v>929</v>
       </c>
       <c r="C584" s="3">
@@ -9841,7 +9837,7 @@
       <c r="A585" s="3" t="s">
         <v>930</v>
       </c>
-      <c r="B585" s="7" t="s">
+      <c r="B585" s="3" t="s">
         <v>931</v>
       </c>
       <c r="C585" s="3">
@@ -9852,7 +9848,7 @@
       <c r="A586" s="3" t="s">
         <v>932</v>
       </c>
-      <c r="B586" s="7" t="s">
+      <c r="B586" s="3" t="s">
         <v>933</v>
       </c>
       <c r="C586" s="3">
@@ -9863,7 +9859,7 @@
       <c r="A587" s="3" t="s">
         <v>934</v>
       </c>
-      <c r="B587" s="7" t="s">
+      <c r="B587" s="3" t="s">
         <v>935</v>
       </c>
       <c r="C587" s="3">
@@ -9874,7 +9870,7 @@
       <c r="A588" s="3" t="s">
         <v>936</v>
       </c>
-      <c r="B588" s="7" t="s">
+      <c r="B588" s="3" t="s">
         <v>937</v>
       </c>
       <c r="C588" s="3">
@@ -9885,7 +9881,7 @@
       <c r="A589" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="B589" s="7" t="s">
+      <c r="B589" s="3" t="s">
         <v>938</v>
       </c>
       <c r="C589" s="3">
@@ -9896,7 +9892,7 @@
       <c r="A590" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B590" s="7" t="s">
+      <c r="B590" s="3" t="s">
         <v>939</v>
       </c>
       <c r="C590" s="3">
@@ -9907,7 +9903,7 @@
       <c r="A591" s="3" t="s">
         <v>940</v>
       </c>
-      <c r="B591" s="7" t="s">
+      <c r="B591" s="3" t="s">
         <v>941</v>
       </c>
       <c r="C591" s="3">
@@ -9918,7 +9914,7 @@
       <c r="A592" s="3" t="s">
         <v>875</v>
       </c>
-      <c r="B592" s="7" t="s">
+      <c r="B592" s="3" t="s">
         <v>942</v>
       </c>
       <c r="C592" s="3">
@@ -9929,7 +9925,7 @@
       <c r="A593" s="3" t="s">
         <v>943</v>
       </c>
-      <c r="B593" s="7" t="s">
+      <c r="B593" s="3" t="s">
         <v>944</v>
       </c>
       <c r="C593" s="3">
@@ -9940,7 +9936,7 @@
       <c r="A594" s="3" t="s">
         <v>945</v>
       </c>
-      <c r="B594" s="7" t="s">
+      <c r="B594" s="3" t="s">
         <v>946</v>
       </c>
       <c r="C594" s="3">
@@ -9951,7 +9947,7 @@
       <c r="A595" s="3" t="s">
         <v>947</v>
       </c>
-      <c r="B595" s="7" t="s">
+      <c r="B595" s="3" t="s">
         <v>948</v>
       </c>
       <c r="C595" s="3">
@@ -9962,7 +9958,7 @@
       <c r="A596" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="B596" s="7" t="s">
+      <c r="B596" s="3" t="s">
         <v>949</v>
       </c>
       <c r="C596" s="3">
@@ -9973,7 +9969,7 @@
       <c r="A597" t="s">
         <v>637</v>
       </c>
-      <c r="B597" s="5" t="s">
+      <c r="B597" t="s">
         <v>966</v>
       </c>
       <c r="C597" s="3">
@@ -9984,7 +9980,7 @@
       <c r="A598" s="3" t="s">
         <v>950</v>
       </c>
-      <c r="B598" s="7" t="s">
+      <c r="B598" s="3" t="s">
         <v>951</v>
       </c>
       <c r="C598" s="3">
@@ -9995,7 +9991,7 @@
       <c r="A599" s="3" t="s">
         <v>952</v>
       </c>
-      <c r="B599" s="7" t="s">
+      <c r="B599" s="3" t="s">
         <v>953</v>
       </c>
       <c r="C599" s="3">
@@ -10006,7 +10002,7 @@
       <c r="A600" s="3" t="s">
         <v>805</v>
       </c>
-      <c r="B600" s="7" t="s">
+      <c r="B600" s="3" t="s">
         <v>916</v>
       </c>
       <c r="C600" s="3">
@@ -10017,7 +10013,7 @@
       <c r="A601" s="3" t="s">
         <v>954</v>
       </c>
-      <c r="B601" s="7" t="s">
+      <c r="B601" s="3" t="s">
         <v>955</v>
       </c>
       <c r="C601" s="3">
@@ -10028,7 +10024,7 @@
       <c r="A602" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B602" s="6" t="s">
+      <c r="B602" s="2" t="s">
         <v>956</v>
       </c>
       <c r="C602" s="2">
@@ -10039,7 +10035,7 @@
       <c r="A603" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="B603" s="6" t="s">
+      <c r="B603" s="2" t="s">
         <v>957</v>
       </c>
       <c r="C603" s="2">
@@ -10050,7 +10046,7 @@
       <c r="A604" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B604" s="6" t="s">
+      <c r="B604" s="2" t="s">
         <v>958</v>
       </c>
       <c r="C604" s="2">
@@ -10061,7 +10057,7 @@
       <c r="A605" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B605" s="6" t="s">
+      <c r="B605" s="2" t="s">
         <v>959</v>
       </c>
       <c r="C605" s="2">
@@ -10072,7 +10068,7 @@
       <c r="A606" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="B606" s="6" t="s">
+      <c r="B606" s="2" t="s">
         <v>960</v>
       </c>
       <c r="C606" s="2">
@@ -10083,7 +10079,7 @@
       <c r="A607" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="B607" s="6" t="s">
+      <c r="B607" s="2" t="s">
         <v>961</v>
       </c>
       <c r="C607" s="2">
@@ -10094,7 +10090,7 @@
       <c r="A608" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="B608" s="6" t="s">
+      <c r="B608" s="2" t="s">
         <v>314</v>
       </c>
       <c r="C608" s="2">
@@ -10105,7 +10101,7 @@
       <c r="A609" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="B609" s="6" t="s">
+      <c r="B609" s="2" t="s">
         <v>962</v>
       </c>
       <c r="C609" s="2">
@@ -10116,7 +10112,7 @@
       <c r="A610" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="B610" s="6" t="s">
+      <c r="B610" s="2" t="s">
         <v>963</v>
       </c>
       <c r="C610" s="2">
@@ -10127,7 +10123,7 @@
       <c r="A611" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B611" s="6" t="s">
+      <c r="B611" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C611" s="2">
@@ -10138,7 +10134,7 @@
       <c r="A612" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="B612" s="6" t="s">
+      <c r="B612" s="2" t="s">
         <v>365</v>
       </c>
       <c r="C612" s="2">
@@ -10149,7 +10145,7 @@
       <c r="A613" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B613" s="6" t="s">
+      <c r="B613" s="2" t="s">
         <v>964</v>
       </c>
       <c r="C613" s="2">
@@ -10160,7 +10156,7 @@
       <c r="A614" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="B614" s="6" t="s">
+      <c r="B614" s="2" t="s">
         <v>388</v>
       </c>
       <c r="C614" s="2">
@@ -10171,7 +10167,7 @@
       <c r="A615" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="B615" s="6" t="s">
+      <c r="B615" s="2" t="s">
         <v>390</v>
       </c>
       <c r="C615" s="2">
@@ -10182,7 +10178,7 @@
       <c r="A616" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="B616" s="6" t="s">
+      <c r="B616" s="2" t="s">
         <v>965</v>
       </c>
       <c r="C616" s="2">
